--- a/Gomez Marcos - Escenario de Ganancia.xlsx
+++ b/Gomez Marcos - Escenario de Ganancia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="224">
   <si>
     <t>Costos Fijos</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Costos Variables</t>
   </si>
   <si>
-    <t>Eventos</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Windows Server</t>
   </si>
   <si>
-    <t>Desarrollo EventosIT</t>
-  </si>
-  <si>
     <t>Modelo de Datos</t>
   </si>
   <si>
@@ -515,12 +509,6 @@
     <t>Responsable Promoción y Penetración.</t>
   </si>
   <si>
-    <t>Año 2. Se suman 3 recursos</t>
-  </si>
-  <si>
-    <t>Año 3. Se suman 2 recursos</t>
-  </si>
-  <si>
     <t>Gerente Técnica</t>
   </si>
   <si>
@@ -656,9 +644,6 @@
     <t>Anos Amortizacion</t>
   </si>
   <si>
-    <t>A los 3 a;os</t>
-  </si>
-  <si>
     <t>Resultado parcial</t>
   </si>
   <si>
@@ -687,6 +672,33 @@
   </si>
   <si>
     <t>Indeminazion</t>
+  </si>
+  <si>
+    <t>Desarrollo del sitio</t>
+  </si>
+  <si>
+    <t>A los 3 años</t>
+  </si>
+  <si>
+    <t>Valor venta</t>
+  </si>
+  <si>
+    <t>Prom ventas por mes</t>
+  </si>
+  <si>
+    <t>Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Año 2. Se suman 3 nuevos recursos y un nuevo Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Año 3. Se suman 2 recursos, y otro Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Salarios Variables</t>
+  </si>
+  <si>
+    <t>Salarios Fijos</t>
   </si>
 </sst>
 </file>
@@ -969,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1536,6 +1548,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1546,7 +1571,7 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,10 +1797,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,6 +1929,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2016,10 +2038,29 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -2275,8 +2316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="103151616"/>
-        <c:axId val="102975168"/>
+        <c:axId val="101586944"/>
+        <c:axId val="101074624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2449,11 +2490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103152640"/>
-        <c:axId val="102975744"/>
+        <c:axId val="101587968"/>
+        <c:axId val="101075200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103151616"/>
+        <c:axId val="101586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2537,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102975168"/>
+        <c:crossAx val="101074624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102975168"/>
+        <c:axId val="101074624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,12 +2596,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103151616"/>
+        <c:crossAx val="101586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102975744"/>
+        <c:axId val="101075200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,12 +2638,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103152640"/>
+        <c:crossAx val="101587968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="103152640"/>
+        <c:axId val="101587968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102975744"/>
+        <c:crossAx val="101075200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2993,11 +3034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104384000"/>
-        <c:axId val="102978048"/>
+        <c:axId val="102221312"/>
+        <c:axId val="101077504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104384000"/>
+        <c:axId val="102221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3097,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102978048"/>
+        <c:crossAx val="101077504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3064,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102978048"/>
+        <c:axId val="101077504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3164,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104384000"/>
+        <c:crossAx val="102221312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3573,11 +3614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104385024"/>
-        <c:axId val="102980352"/>
+        <c:axId val="102222336"/>
+        <c:axId val="101079808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104385024"/>
+        <c:axId val="102222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3677,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102980352"/>
+        <c:crossAx val="101079808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102980352"/>
+        <c:axId val="101079808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3744,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104385024"/>
+        <c:crossAx val="102222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4153,11 +4194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104386048"/>
-        <c:axId val="104850560"/>
+        <c:axId val="102223360"/>
+        <c:axId val="104522880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104386048"/>
+        <c:axId val="102223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,7 +4257,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104850560"/>
+        <c:crossAx val="104522880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4224,7 +4265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104850560"/>
+        <c:axId val="104522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4324,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104386048"/>
+        <c:crossAx val="102223360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4438,7 +4479,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Estrategia de precio'!$C$18</c:f>
+              <c:f>'Estrategia de precio'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4467,7 +4508,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$19:$B$38</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4536,69 +4577,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$C$19:$C$38</c:f>
+              <c:f>'Estrategia de precio'!$C$20:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159000</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,7 +4656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Estrategia de precio'!$E$18</c:f>
+              <c:f>'Estrategia de precio'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4644,7 +4685,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$19:$B$38</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4713,69 +4754,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$E$19:$E$38</c:f>
+              <c:f>'Estrategia de precio'!$E$20:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>167300</c:v>
+                  <c:v>185300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167715</c:v>
+                  <c:v>185715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168150.75</c:v>
+                  <c:v>186150.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168608.28750000001</c:v>
+                  <c:v>186608.28750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169088.701875</c:v>
+                  <c:v>187088.701875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169593.13696875001</c:v>
+                  <c:v>187593.13696875001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170122.79381718751</c:v>
+                  <c:v>188122.79381718751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170678.93350804687</c:v>
+                  <c:v>188678.93350804687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171262.88018344922</c:v>
+                  <c:v>189262.88018344922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171876.0241926217</c:v>
+                  <c:v>189876.0241926217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>172519.82540225278</c:v>
+                  <c:v>190519.82540225278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173195.81667236541</c:v>
+                  <c:v>191195.81667236541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>173905.60750598367</c:v>
+                  <c:v>191905.60750598367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174650.88788128286</c:v>
+                  <c:v>192650.88788128286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>175433.432275347</c:v>
+                  <c:v>193433.432275347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176255.10388911437</c:v>
+                  <c:v>194255.10388911437</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>177117.85908357007</c:v>
+                  <c:v>195117.85908357007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>178023.75203774858</c:v>
+                  <c:v>196023.75203774858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178974.93963963602</c:v>
+                  <c:v>196974.93963963602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179973.68662161782</c:v>
+                  <c:v>197973.68662161782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4792,7 +4833,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Estrategia de precio'!$F$18</c:f>
+              <c:f>'Estrategia de precio'!$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4879,7 +4920,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$19:$B$38</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4948,7 +4989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$F$19:$F$38</c:f>
+              <c:f>'Estrategia de precio'!$F$20:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5032,11 +5073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74770944"/>
-        <c:axId val="104852864"/>
+        <c:axId val="91814400"/>
+        <c:axId val="104525184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74770944"/>
+        <c:axId val="91814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,7 +5141,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104852864"/>
+        <c:crossAx val="104525184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5108,7 +5149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104852864"/>
+        <c:axId val="104525184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,7 +5208,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74770944"/>
+        <c:crossAx val="91814400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8478,16 +8519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>183094</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102658</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24344</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468844</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>310094</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>188383</xdr:rowOff>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8496,7 +8537,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13211177" y="5150908"/>
+          <a:off x="13983761" y="4981575"/>
           <a:ext cx="285750" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8643,12 +8684,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64238</cdr:x>
+      <cdr:x>0.69917</cdr:x>
       <cdr:y>0.33269</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.81394</cdr:x>
-      <cdr:y>0.45949</cdr:y>
+      <cdr:y>0.41436</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8657,8 +8698,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5627160" y="1638300"/>
-          <a:ext cx="1502834" cy="624416"/>
+          <a:off x="6124576" y="1638307"/>
+          <a:ext cx="1005397" cy="402159"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
           <a:avLst>
@@ -8959,7 +9000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8970,7 +9011,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8983,22 +9024,22 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="170" t="s">
+      <c r="A4" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="168" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="D4" s="168" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="170" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="22">
         <v>198</v>
@@ -9012,7 +9053,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="73">
         <f>E16*B5</f>
@@ -9029,23 +9070,23 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D11" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="71" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9065,7 +9106,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:H32"/>
+      <selection activeCell="E25" sqref="E25:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9080,16 +9121,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="183"/>
-      <c r="E1" s="181" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="183"/>
+      <c r="A1" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="182"/>
+      <c r="E1" s="180" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="181"/>
+      <c r="G1" s="182"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9111,7 +9152,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9128,14 +9169,14 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="9">
         <v>5000</v>
       </c>
       <c r="H3" s="46">
         <f>G3/$G$7</f>
-        <v>0.60240963855421692</v>
+        <v>0.19011406844106463</v>
       </c>
       <c r="I3" s="42"/>
     </row>
@@ -9153,14 +9194,14 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="9">
         <v>1500</v>
       </c>
       <c r="H4" s="46">
         <f t="shared" ref="H4:H5" si="0">G4/$G$7</f>
-        <v>0.18072289156626506</v>
+        <v>5.7034220532319393E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9177,14 +9218,14 @@
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="9">
         <v>1800</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" si="0"/>
-        <v>0.21686746987951808</v>
+        <v>6.8441064638783272E-2</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -9198,9 +9239,13 @@
       <c r="C6" s="9">
         <v>1300</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>18000</v>
+      </c>
       <c r="I6" s="28"/>
       <c r="J6" s="23"/>
     </row>
@@ -9220,7 +9265,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="13">
         <f>SUM(G3:G6)</f>
-        <v>8300</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9235,22 +9280,22 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="13">
         <f>G7*12</f>
-        <v>99600</v>
+        <v>315600</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="12">
-        <f>Recursos!D94</f>
+        <f>Recursos!D102</f>
         <v>130000</v>
       </c>
     </row>
@@ -9267,7 +9312,7 @@
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="29">
         <f>C10*12</f>
@@ -9278,18 +9323,18 @@
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="E13" s="181" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="182"/>
-      <c r="G13" s="183"/>
+      <c r="A13" s="180" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="181"/>
+      <c r="C13" s="182"/>
+      <c r="E13" s="180" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="181"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9309,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="48">
         <f>('Mercado Meta'!C5-'Mercado Meta'!B5)/'Mercado Meta'!B5</f>
@@ -9330,11 +9375,11 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9">
         <f>G19*H3</f>
-        <v>7323.2323232323242</v>
+        <v>7323.2323232323233</v>
       </c>
       <c r="I15" s="42"/>
     </row>
@@ -9352,7 +9397,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="9">
         <f>G19*H4</f>
@@ -9373,7 +9418,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="9">
         <f>G19*H5</f>
@@ -9392,9 +9437,14 @@
       <c r="C18" s="9">
         <v>1300</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9">
+        <f>2*G6</f>
+        <v>36000</v>
+      </c>
       <c r="H18" s="44"/>
       <c r="I18" s="28"/>
     </row>
@@ -9414,7 +9464,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="13">
         <f>(G7*H14)+G7</f>
-        <v>12156.565656565657</v>
+        <v>38520.202020202021</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9429,22 +9479,22 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="13">
         <f>G19*12</f>
-        <v>145878.7878787879</v>
+        <v>462242.42424242425</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="12">
-        <f>Recursos!E94</f>
+        <f>Recursos!E102</f>
         <v>224250</v>
       </c>
     </row>
@@ -9461,7 +9511,7 @@
     <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="29">
         <f>C22*12</f>
@@ -9470,18 +9520,18 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="181" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="E25" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="182"/>
-      <c r="G25" s="183"/>
+      <c r="A25" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="E25" s="180" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="181"/>
+      <c r="G25" s="182"/>
       <c r="H25" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9501,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="48">
         <f>('Mercado Meta'!D5-'Mercado Meta'!C5)/'Mercado Meta'!C5</f>
@@ -9522,11 +9572,11 @@
         <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="9">
         <f>G31*H3</f>
-        <v>9924.2424242424258</v>
+        <v>9924.242424242424</v>
       </c>
       <c r="I27" s="42"/>
     </row>
@@ -9544,11 +9594,11 @@
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="9">
         <f>G31*H4</f>
-        <v>2977.272727272727</v>
+        <v>2977.2727272727275</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -9565,7 +9615,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="9">
         <f>G31*H5</f>
@@ -9584,9 +9634,14 @@
       <c r="C30" s="9">
         <v>1300</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9">
+        <f>G6*3</f>
+        <v>54000</v>
+      </c>
       <c r="H30" s="44"/>
       <c r="I30" s="28"/>
     </row>
@@ -9606,7 +9661,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="13">
         <f>(G19*H26)+G19</f>
-        <v>16474.242424242424</v>
+        <v>52201.515151515152</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9621,22 +9676,22 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="13">
         <f>G31*12</f>
-        <v>197690.90909090909</v>
+        <v>626418.18181818188</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="12">
-        <f>+Recursos!F94</f>
+        <f>+Recursos!F102</f>
         <v>292500</v>
       </c>
     </row>
@@ -9653,7 +9708,7 @@
     <row r="35" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
       <c r="B35" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="29">
         <f>C34*12</f>
@@ -9678,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:N45"/>
+    <sheetView showGridLines="0" topLeftCell="B50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9690,7 +9745,7 @@
     <col min="4" max="7" width="14.85546875" style="74" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="74" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="74" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="74" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="74" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="74" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="74" bestFit="1" customWidth="1"/>
@@ -9699,32 +9754,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="184"/>
+      <c r="E1" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="184" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="184" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="185"/>
+      <c r="H1" s="184"/>
       <c r="I1" s="76"/>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="136" t="s">
+      <c r="L1" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="135" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
-        <v>177</v>
+      <c r="B2" s="129" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="77">
         <f>'Mercado Meta'!B5/12</f>
@@ -9742,8 +9797,8 @@
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="79"/>
-      <c r="J2" s="139" t="s">
-        <v>23</v>
+      <c r="J2" s="137" t="s">
+        <v>218</v>
       </c>
       <c r="K2" s="81">
         <f>C2</f>
@@ -9759,7 +9814,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="82">
@@ -9787,8 +9842,8 @@
         <v>393000</v>
       </c>
       <c r="I3" s="84"/>
-      <c r="J3" s="138" t="s">
-        <v>33</v>
+      <c r="J3" s="136" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="85"/>
       <c r="L3" s="86">
@@ -9801,7 +9856,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="132"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
       <c r="E4" s="88"/>
@@ -9809,8 +9864,8 @@
       <c r="G4" s="88"/>
       <c r="H4" s="89"/>
       <c r="I4" s="84"/>
-      <c r="J4" s="138" t="s">
-        <v>90</v>
+      <c r="J4" s="136" t="s">
+        <v>217</v>
       </c>
       <c r="K4" s="90">
         <v>12000</v>
@@ -9823,7 +9878,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="92"/>
@@ -9849,23 +9904,23 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="186" t="s">
+      <c r="D7" s="186"/>
+      <c r="E7" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="186" t="s">
+      <c r="F7" s="186"/>
+      <c r="G7" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="187"/>
+      <c r="H7" s="186"/>
       <c r="I7" s="76"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="131" t="s">
-        <v>178</v>
+      <c r="B8" s="129" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="80">
         <f>'Mercado Meta'!B5</f>
@@ -9885,7 +9940,7 @@
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="130" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="82">
@@ -9915,7 +9970,7 @@
       <c r="I9" s="84"/>
     </row>
     <row r="10" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="132"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="88"/>
       <c r="D10" s="101"/>
       <c r="E10" s="88"/>
@@ -9923,15 +9978,15 @@
       <c r="G10" s="88"/>
       <c r="H10" s="101"/>
       <c r="I10" s="84"/>
-      <c r="K10" s="140" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="142" t="s">
-        <v>174</v>
+      <c r="K10" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="132" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="92"/>
@@ -9950,8 +10005,8 @@
         <v>4716000</v>
       </c>
       <c r="I11" s="94"/>
-      <c r="K11" s="141" t="s">
-        <v>175</v>
+      <c r="K11" s="139" t="s">
+        <v>171</v>
       </c>
       <c r="L11" s="15">
         <v>12000</v>
@@ -9970,21 +10025,21 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
+      <c r="B18" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="102">
@@ -10029,47 +10084,47 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="D20" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="144" t="s">
+      <c r="E20" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="F20" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="144" t="s">
+      <c r="G20" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="144" t="s">
+      <c r="H20" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="144" t="s">
+      <c r="I20" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="144" t="s">
+      <c r="J20" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="144" t="s">
+      <c r="K20" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="144" t="s">
+      <c r="L20" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="144" t="s">
+      <c r="M20" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="144"/>
+      <c r="N20" s="142"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="103">
         <f>$B$17*B19</f>
@@ -10126,7 +10181,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="99">
         <f>IFERROR(B21*$L$11,0)</f>
@@ -10226,21 +10281,21 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
+      <c r="B29" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="102">
@@ -10285,47 +10340,47 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="D31" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="144" t="s">
+      <c r="E31" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="144" t="s">
+      <c r="F31" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="144" t="s">
+      <c r="G31" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="144" t="s">
+      <c r="H31" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="144" t="s">
+      <c r="I31" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="144" t="s">
+      <c r="J31" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="144" t="s">
+      <c r="K31" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="144" t="s">
+      <c r="L31" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="144" t="s">
+      <c r="M31" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="144" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="144"/>
+      <c r="N31" s="142"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="103">
         <f>$B$28*B30</f>
@@ -10382,7 +10437,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="99">
         <f t="shared" ref="B33:C33" si="3">IFERROR(B32*$L$11,0)</f>
@@ -10482,21 +10537,21 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
+      <c r="B41" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="102">
@@ -10541,47 +10596,47 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="D43" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="144" t="s">
+      <c r="E43" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="144" t="s">
+      <c r="F43" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="144" t="s">
+      <c r="G43" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="144" t="s">
+      <c r="H43" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="144" t="s">
+      <c r="I43" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="144" t="s">
+      <c r="J43" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="144" t="s">
+      <c r="K43" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="144" t="s">
+      <c r="L43" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="144" t="s">
+      <c r="M43" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="M43" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="N43" s="144"/>
+      <c r="N43" s="142"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="103">
         <f>$B$40*B42</f>
@@ -10638,7 +10693,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="99">
         <f t="shared" ref="B45:N45" si="16">IFERROR(B44*$L$11,0)</f>
@@ -10748,10 +10803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F38"/>
+      <selection activeCell="A19" sqref="A19:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10766,12 +10821,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10785,636 +10840,645 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="195"/>
-      <c r="C4" s="121" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="121">
         <v>2600</v>
       </c>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="195"/>
-      <c r="C5" s="121" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="121">
         <v>11900</v>
       </c>
       <c r="K5" s="107"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="195"/>
-      <c r="C6" s="121" t="s">
+      <c r="B6" s="194"/>
+      <c r="C6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="121">
         <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="195"/>
-      <c r="C7" s="121" t="s">
+      <c r="B7" s="194"/>
+      <c r="C7" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="121">
         <v>1400</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="111"/>
+      <c r="L7" s="109"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="195"/>
-      <c r="C8" s="121" t="s">
+      <c r="B8" s="194"/>
+      <c r="C8" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="121">
         <v>600</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H8" s="35">
         <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="195"/>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="194"/>
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="123">
+      <c r="E9" s="121">
         <v>2300</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="196"/>
-      <c r="C10" s="124" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="124">
         <v>130000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="121">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="195"/>
-      <c r="C12" s="121" t="s">
+      <c r="B12" s="194"/>
+      <c r="C12" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="121">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="196"/>
-      <c r="C13" s="127" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="226"/>
+      <c r="C13" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="124">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="225"/>
+      <c r="C14" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D14" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="129">
+      <c r="E14" s="127">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="197" t="s">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="198"/>
-      <c r="E14" s="130">
-        <f>SUM(E4:E13)</f>
-        <v>159000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>23</v>
+      <c r="D15" s="197"/>
+      <c r="E15" s="128">
+        <f>SUM(E4:E14)</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="E18">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="E17">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="14" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="110">
+        <v>1</v>
+      </c>
+      <c r="C20" s="111">
+        <f>$E$15</f>
+        <v>177000</v>
+      </c>
+      <c r="D20" s="111">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="111">
+        <f>SUM(C20:D20)</f>
+        <v>185300</v>
+      </c>
+      <c r="F20" s="112">
+        <f>B20*$H$8</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="191"/>
+      <c r="B21" s="110">
+        <v>2</v>
+      </c>
+      <c r="C21" s="111">
+        <f t="shared" ref="C21:C39" si="0">$E$15</f>
+        <v>177000</v>
+      </c>
+      <c r="D21" s="111">
+        <f t="shared" ref="D21:D31" si="1">D20*$E$18</f>
+        <v>8715</v>
+      </c>
+      <c r="E21" s="111">
+        <f t="shared" ref="E21:E31" si="2">SUM(C21:D21)</f>
+        <v>185715</v>
+      </c>
+      <c r="F21" s="112">
+        <f>B21*$H$8</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="191"/>
+      <c r="B22" s="110">
+        <v>3</v>
+      </c>
+      <c r="C22" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D22" s="111">
+        <f t="shared" si="1"/>
+        <v>9150.75</v>
+      </c>
+      <c r="E22" s="111">
+        <f t="shared" si="2"/>
+        <v>186150.75</v>
+      </c>
+      <c r="F22" s="112">
+        <f>B22*$H$8</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="191"/>
+      <c r="B23" s="110">
+        <v>4</v>
+      </c>
+      <c r="C23" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D23" s="111">
+        <f t="shared" si="1"/>
+        <v>9608.2875000000004</v>
+      </c>
+      <c r="E23" s="111">
+        <f t="shared" si="2"/>
+        <v>186608.28750000001</v>
+      </c>
+      <c r="F23" s="112">
+        <f>B23*$H$8</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="191"/>
+      <c r="B24" s="110">
+        <v>5</v>
+      </c>
+      <c r="C24" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D24" s="111">
+        <f t="shared" si="1"/>
+        <v>10088.701875000001</v>
+      </c>
+      <c r="E24" s="111">
+        <f t="shared" si="2"/>
+        <v>187088.701875</v>
+      </c>
+      <c r="F24" s="112">
+        <f>B24*$H$8</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="191"/>
+      <c r="B25" s="110">
+        <v>6</v>
+      </c>
+      <c r="C25" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D25" s="111">
+        <f t="shared" si="1"/>
+        <v>10593.136968750001</v>
+      </c>
+      <c r="E25" s="111">
+        <f t="shared" si="2"/>
+        <v>187593.13696875001</v>
+      </c>
+      <c r="F25" s="112">
+        <f>B25*$H$8</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="191"/>
+      <c r="B26" s="110">
+        <v>7</v>
+      </c>
+      <c r="C26" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D26" s="111">
+        <f t="shared" si="1"/>
+        <v>11122.793817187501</v>
+      </c>
+      <c r="E26" s="111">
+        <f t="shared" si="2"/>
+        <v>188122.79381718751</v>
+      </c>
+      <c r="F26" s="112">
+        <f>B26*$H$8</f>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="191"/>
+      <c r="B27" s="110">
+        <v>8</v>
+      </c>
+      <c r="C27" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D27" s="111">
+        <f t="shared" si="1"/>
+        <v>11678.933508046877</v>
+      </c>
+      <c r="E27" s="111">
+        <f t="shared" si="2"/>
+        <v>188678.93350804687</v>
+      </c>
+      <c r="F27" s="112">
+        <f>B27*$H$8</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="191"/>
+      <c r="B28" s="110">
+        <v>9</v>
+      </c>
+      <c r="C28" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D28" s="111">
+        <f t="shared" si="1"/>
+        <v>12262.880183449222</v>
+      </c>
+      <c r="E28" s="111">
+        <f t="shared" si="2"/>
+        <v>189262.88018344922</v>
+      </c>
+      <c r="F28" s="112">
+        <f>B28*$H$8</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="191"/>
+      <c r="B29" s="110">
+        <v>10</v>
+      </c>
+      <c r="C29" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D29" s="111">
+        <f t="shared" si="1"/>
+        <v>12876.024192621684</v>
+      </c>
+      <c r="E29" s="111">
+        <f t="shared" si="2"/>
+        <v>189876.0241926217</v>
+      </c>
+      <c r="F29" s="112">
+        <f>B29*$H$8</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="191"/>
+      <c r="B30" s="110">
+        <v>11</v>
+      </c>
+      <c r="C30" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D30" s="111">
+        <f t="shared" si="1"/>
+        <v>13519.825402252769</v>
+      </c>
+      <c r="E30" s="111">
+        <f t="shared" si="2"/>
+        <v>190519.82540225278</v>
+      </c>
+      <c r="F30" s="112">
+        <f>B30*$H$8</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="191"/>
+      <c r="B31" s="113">
+        <v>12</v>
+      </c>
+      <c r="C31" s="114">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D31" s="114">
+        <f t="shared" si="1"/>
+        <v>14195.816672365409</v>
+      </c>
+      <c r="E31" s="114">
+        <f t="shared" si="2"/>
+        <v>191195.81667236541</v>
+      </c>
+      <c r="F31" s="115">
+        <f>B31*$H$8</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="191"/>
+      <c r="B32" s="110">
+        <v>13</v>
+      </c>
+      <c r="C32" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D32" s="111">
+        <f t="shared" ref="D32:D37" si="3">D31*$E$18</f>
+        <v>14905.60750598368</v>
+      </c>
+      <c r="E32" s="111">
+        <f t="shared" ref="E32:E37" si="4">SUM(C32:D32)</f>
+        <v>191905.60750598367</v>
+      </c>
+      <c r="F32" s="112">
+        <f>B32*$H$8</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="192"/>
+      <c r="B33" s="110">
+        <v>14</v>
+      </c>
+      <c r="C33" s="111">
+        <f t="shared" si="0"/>
+        <v>177000</v>
+      </c>
+      <c r="D33" s="111">
+        <f t="shared" si="3"/>
+        <v>15650.887881282864</v>
+      </c>
+      <c r="E33" s="111">
+        <f t="shared" si="4"/>
+        <v>192650.88788128286</v>
+      </c>
+      <c r="F33" s="112">
+        <f>B33*$H$8</f>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="108" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="112">
-        <v>1</v>
-      </c>
-      <c r="C19" s="113">
-        <f>$E$14</f>
-        <v>159000</v>
-      </c>
-      <c r="D19" s="113">
-        <v>8300</v>
-      </c>
-      <c r="E19" s="113">
-        <f>SUM(C19:D19)</f>
-        <v>167300</v>
-      </c>
-      <c r="F19" s="114">
-        <f t="shared" ref="F19:F38" si="0">B19*$H$8</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="112">
-        <v>2</v>
-      </c>
-      <c r="C20" s="113">
-        <f t="shared" ref="C20:C38" si="1">$E$14</f>
-        <v>159000</v>
-      </c>
-      <c r="D20" s="113">
-        <f t="shared" ref="D20:D30" si="2">D19*$E$17</f>
-        <v>8715</v>
-      </c>
-      <c r="E20" s="113">
-        <f t="shared" ref="E20:E30" si="3">SUM(C20:D20)</f>
-        <v>167715</v>
-      </c>
-      <c r="F20" s="114">
+      <c r="B34" s="222">
+        <v>15</v>
+      </c>
+      <c r="C34" s="223">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="112">
-        <v>3</v>
-      </c>
-      <c r="C21" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D21" s="113">
-        <f t="shared" si="2"/>
-        <v>9150.75</v>
-      </c>
-      <c r="E21" s="113">
+        <v>177000</v>
+      </c>
+      <c r="D34" s="223">
         <f t="shared" si="3"/>
-        <v>168150.75</v>
-      </c>
-      <c r="F21" s="114">
+        <v>16433.432275347008</v>
+      </c>
+      <c r="E34" s="223">
+        <f t="shared" si="4"/>
+        <v>193433.432275347</v>
+      </c>
+      <c r="F34" s="224">
+        <f>B34*$H$8</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="187" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="219">
+        <v>16</v>
+      </c>
+      <c r="C35" s="220">
         <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="112">
-        <v>4</v>
-      </c>
-      <c r="C22" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D22" s="113">
-        <f t="shared" si="2"/>
-        <v>9608.2875000000004</v>
-      </c>
-      <c r="E22" s="113">
+        <v>177000</v>
+      </c>
+      <c r="D35" s="220">
         <f t="shared" si="3"/>
-        <v>168608.28750000001</v>
-      </c>
-      <c r="F22" s="114">
+        <v>17255.103889114358</v>
+      </c>
+      <c r="E35" s="220">
+        <f t="shared" si="4"/>
+        <v>194255.10388911437</v>
+      </c>
+      <c r="F35" s="221">
+        <f>B35*$H$8</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="188"/>
+      <c r="B36" s="116">
+        <v>17</v>
+      </c>
+      <c r="C36" s="117">
         <f t="shared" si="0"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="112">
-        <v>5</v>
-      </c>
-      <c r="C23" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D23" s="113">
-        <f t="shared" si="2"/>
-        <v>10088.701875000001</v>
-      </c>
-      <c r="E23" s="113">
+        <v>177000</v>
+      </c>
+      <c r="D36" s="117">
         <f t="shared" si="3"/>
-        <v>169088.701875</v>
-      </c>
-      <c r="F23" s="114">
+        <v>18117.859083570078</v>
+      </c>
+      <c r="E36" s="117">
+        <f t="shared" si="4"/>
+        <v>195117.85908357007</v>
+      </c>
+      <c r="F36" s="118">
+        <f>B36*$H$8</f>
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="188"/>
+      <c r="B37" s="116">
+        <v>18</v>
+      </c>
+      <c r="C37" s="117">
         <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="192"/>
-      <c r="B24" s="112">
-        <v>6</v>
-      </c>
-      <c r="C24" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D24" s="113">
-        <f t="shared" si="2"/>
-        <v>10593.136968750001</v>
-      </c>
-      <c r="E24" s="113">
+        <v>177000</v>
+      </c>
+      <c r="D37" s="117">
         <f t="shared" si="3"/>
-        <v>169593.13696875001</v>
-      </c>
-      <c r="F24" s="114">
+        <v>19023.752037748582</v>
+      </c>
+      <c r="E37" s="117">
+        <f t="shared" si="4"/>
+        <v>196023.75203774858</v>
+      </c>
+      <c r="F37" s="118">
+        <f>B37*$H$8</f>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="188"/>
+      <c r="B38" s="116">
+        <v>19</v>
+      </c>
+      <c r="C38" s="117">
         <f t="shared" si="0"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="192"/>
-      <c r="B25" s="112">
-        <v>7</v>
-      </c>
-      <c r="C25" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D25" s="113">
-        <f t="shared" si="2"/>
-        <v>11122.793817187501</v>
-      </c>
-      <c r="E25" s="113">
-        <f t="shared" si="3"/>
-        <v>170122.79381718751</v>
-      </c>
-      <c r="F25" s="114">
+        <v>177000</v>
+      </c>
+      <c r="D38" s="117">
+        <f t="shared" ref="D38:D39" si="5">D37*$E$18</f>
+        <v>19974.93963963601</v>
+      </c>
+      <c r="E38" s="117">
+        <f t="shared" ref="E38:E39" si="6">SUM(C38:D38)</f>
+        <v>196974.93963963602</v>
+      </c>
+      <c r="F38" s="118">
+        <f>B38*$H$8</f>
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="189"/>
+      <c r="B39" s="116">
+        <v>20</v>
+      </c>
+      <c r="C39" s="117">
         <f t="shared" si="0"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="192"/>
-      <c r="B26" s="112">
-        <v>8</v>
-      </c>
-      <c r="C26" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D26" s="113">
-        <f t="shared" si="2"/>
-        <v>11678.933508046877</v>
-      </c>
-      <c r="E26" s="113">
-        <f t="shared" si="3"/>
-        <v>170678.93350804687</v>
-      </c>
-      <c r="F26" s="114">
-        <f t="shared" si="0"/>
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="192"/>
-      <c r="B27" s="112">
-        <v>9</v>
-      </c>
-      <c r="C27" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D27" s="113">
-        <f t="shared" si="2"/>
-        <v>12262.880183449222</v>
-      </c>
-      <c r="E27" s="113">
-        <f t="shared" si="3"/>
-        <v>171262.88018344922</v>
-      </c>
-      <c r="F27" s="114">
-        <f t="shared" si="0"/>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="192"/>
-      <c r="B28" s="112">
-        <v>10</v>
-      </c>
-      <c r="C28" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D28" s="113">
-        <f t="shared" si="2"/>
-        <v>12876.024192621684</v>
-      </c>
-      <c r="E28" s="113">
-        <f t="shared" si="3"/>
-        <v>171876.0241926217</v>
-      </c>
-      <c r="F28" s="114">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="192"/>
-      <c r="B29" s="112">
-        <v>11</v>
-      </c>
-      <c r="C29" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D29" s="113">
-        <f t="shared" si="2"/>
-        <v>13519.825402252769</v>
-      </c>
-      <c r="E29" s="113">
-        <f t="shared" si="3"/>
-        <v>172519.82540225278</v>
-      </c>
-      <c r="F29" s="114">
-        <f t="shared" si="0"/>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="192"/>
-      <c r="B30" s="115">
-        <v>12</v>
-      </c>
-      <c r="C30" s="116">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D30" s="116">
-        <f t="shared" si="2"/>
-        <v>14195.816672365409</v>
-      </c>
-      <c r="E30" s="116">
-        <f t="shared" si="3"/>
-        <v>173195.81667236541</v>
-      </c>
-      <c r="F30" s="117">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="192"/>
-      <c r="B31" s="112">
-        <v>13</v>
-      </c>
-      <c r="C31" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D31" s="113">
-        <f t="shared" ref="D31:D36" si="4">D30*$E$17</f>
-        <v>14905.60750598368</v>
-      </c>
-      <c r="E31" s="113">
-        <f t="shared" ref="E31:E36" si="5">SUM(C31:D31)</f>
-        <v>173905.60750598367</v>
-      </c>
-      <c r="F31" s="114">
-        <f t="shared" si="0"/>
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="193"/>
-      <c r="B32" s="112">
-        <v>14</v>
-      </c>
-      <c r="C32" s="113">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D32" s="113">
-        <f t="shared" si="4"/>
-        <v>15650.887881282864</v>
-      </c>
-      <c r="E32" s="113">
+        <v>177000</v>
+      </c>
+      <c r="D39" s="117">
         <f t="shared" si="5"/>
-        <v>174650.88788128286</v>
-      </c>
-      <c r="F32" s="114">
-        <f t="shared" si="0"/>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="108">
-        <v>15</v>
-      </c>
-      <c r="C33" s="109">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D33" s="109">
-        <f t="shared" si="4"/>
-        <v>16433.432275347008</v>
-      </c>
-      <c r="E33" s="109">
-        <f t="shared" si="5"/>
-        <v>175433.432275347</v>
-      </c>
-      <c r="F33" s="110">
-        <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="188" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="118">
-        <v>16</v>
-      </c>
-      <c r="C34" s="119">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D34" s="119">
-        <f t="shared" si="4"/>
-        <v>17255.103889114358</v>
-      </c>
-      <c r="E34" s="119">
-        <f t="shared" si="5"/>
-        <v>176255.10388911437</v>
-      </c>
-      <c r="F34" s="120">
-        <f t="shared" si="0"/>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="189"/>
-      <c r="B35" s="118">
-        <v>17</v>
-      </c>
-      <c r="C35" s="119">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D35" s="119">
-        <f t="shared" si="4"/>
-        <v>18117.859083570078</v>
-      </c>
-      <c r="E35" s="119">
-        <f t="shared" si="5"/>
-        <v>177117.85908357007</v>
-      </c>
-      <c r="F35" s="120">
-        <f t="shared" si="0"/>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
-      <c r="B36" s="118">
-        <v>18</v>
-      </c>
-      <c r="C36" s="119">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D36" s="119">
-        <f t="shared" si="4"/>
-        <v>19023.752037748582</v>
-      </c>
-      <c r="E36" s="119">
-        <f t="shared" si="5"/>
-        <v>178023.75203774858</v>
-      </c>
-      <c r="F36" s="120">
-        <f t="shared" si="0"/>
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="189"/>
-      <c r="B37" s="118">
-        <v>19</v>
-      </c>
-      <c r="C37" s="119">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D37" s="119">
-        <f t="shared" ref="D37:D38" si="6">D36*$E$17</f>
-        <v>19974.93963963601</v>
-      </c>
-      <c r="E37" s="119">
-        <f t="shared" ref="E37:E38" si="7">SUM(C37:D37)</f>
-        <v>178974.93963963602</v>
-      </c>
-      <c r="F37" s="120">
-        <f t="shared" si="0"/>
-        <v>228000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="190"/>
-      <c r="B38" s="118">
-        <v>20</v>
-      </c>
-      <c r="C38" s="119">
-        <f t="shared" si="1"/>
-        <v>159000</v>
-      </c>
-      <c r="D38" s="119">
+        <v>20973.68662161781</v>
+      </c>
+      <c r="E39" s="117">
         <f t="shared" si="6"/>
-        <v>20973.68662161781</v>
-      </c>
-      <c r="E38" s="119">
-        <f t="shared" si="7"/>
-        <v>179973.68662161782</v>
-      </c>
-      <c r="F38" s="120">
-        <f t="shared" si="0"/>
+        <v>197973.68662161782</v>
+      </c>
+      <c r="F39" s="118">
+        <f>B39*$H$8</f>
         <v>240000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A20:A33"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11427,7 +11491,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:J10"/>
+      <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11445,7 +11509,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -11455,77 +11519,77 @@
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="152" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="150" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="161"/>
-      <c r="B3" s="150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="150" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="D3" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="153" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="153" t="s">
+      <c r="E3" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="153" t="s">
+      <c r="I3" s="151" t="s">
         <v>92</v>
+      </c>
+      <c r="J3" s="151" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
-      <c r="G4" s="154" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="155">
+      <c r="G4" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="153">
         <f>C15*-1</f>
-        <v>122072.3875</v>
-      </c>
-      <c r="I4" s="155">
+        <v>46472.387499999997</v>
+      </c>
+      <c r="I4" s="153">
         <f t="shared" ref="I4:J4" si="0">D15*-1</f>
-        <v>367534.81174242415</v>
-      </c>
-      <c r="J4" s="155">
+        <v>256807.53901515147</v>
+      </c>
+      <c r="J4" s="153">
         <f t="shared" si="0"/>
-        <v>482624.56931818178</v>
+        <v>332570.02386363642</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="55">
         <v>0</v>
@@ -11565,7 +11629,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="59"/>
@@ -11581,25 +11645,25 @@
       </c>
       <c r="C8" s="60">
         <f>-Costos!G8</f>
-        <v>-99600</v>
+        <v>-315600</v>
       </c>
       <c r="D8" s="60">
         <f>-Costos!G20</f>
-        <v>-145878.7878787879</v>
+        <v>-462242.42424242425</v>
       </c>
       <c r="E8" s="60">
         <f>-Costos!G32</f>
-        <v>-197690.90909090909</v>
-      </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="156" t="s">
-        <v>105</v>
+        <v>-626418.18181818188</v>
+      </c>
+      <c r="G8" s="149"/>
+      <c r="H8" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="154" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -11621,20 +11685,20 @@
         <f>D9*1.4</f>
         <v>-2993760</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="153" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="153" t="s">
+      <c r="G9" s="149"/>
+      <c r="H9" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="153" t="s">
+      <c r="I9" s="151" t="s">
         <v>92</v>
+      </c>
+      <c r="J9" s="151" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="61">
@@ -11649,18 +11713,18 @@
         <f>-Inversion!J19</f>
         <v>-145621.75</v>
       </c>
-      <c r="G10" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="155">
+      <c r="G10" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="153">
         <f>C5*0.03</f>
         <v>71280</v>
       </c>
-      <c r="I10" s="155">
+      <c r="I10" s="153">
         <f t="shared" ref="I10:J10" si="1">D5*0.03</f>
         <v>104400</v>
       </c>
-      <c r="J10" s="155">
+      <c r="J10" s="153">
         <f t="shared" si="1"/>
         <v>141480</v>
       </c>
@@ -11673,15 +11737,15 @@
       </c>
       <c r="C11" s="62">
         <f>SUM(C8:C10)</f>
-        <v>-2027221.75</v>
+        <v>-2243221.75</v>
       </c>
       <c r="D11" s="62">
         <f>SUM(D8:D10)</f>
-        <v>-2429900.5378787881</v>
+        <v>-2746264.1742424243</v>
       </c>
       <c r="E11" s="62">
         <f>SUM(E8:E10)</f>
-        <v>-3337072.6590909092</v>
+        <v>-3765799.9318181816</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11693,7 +11757,7 @@
     </row>
     <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="64">
         <f>+B6+B11</f>
@@ -11701,15 +11765,15 @@
       </c>
       <c r="C13" s="64">
         <f>+C6+C11</f>
-        <v>348778.25</v>
+        <v>132778.25</v>
       </c>
       <c r="D13" s="64">
         <f>+D6+D11</f>
-        <v>1050099.4621212119</v>
+        <v>733735.82575757569</v>
       </c>
       <c r="E13" s="64">
         <f>+E6+E11</f>
-        <v>1378927.3409090908</v>
+        <v>950200.06818181835</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11721,20 +11785,20 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="65">
         <f>-C13*0.35</f>
-        <v>-122072.3875</v>
+        <v>-46472.387499999997</v>
       </c>
       <c r="D15" s="65">
         <f>-D13*0.35</f>
-        <v>-367534.81174242415</v>
+        <v>-256807.53901515147</v>
       </c>
       <c r="E15" s="65">
         <f>-E13*0.35</f>
-        <v>-482624.56931818178</v>
+        <v>-332570.02386363642</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11746,20 +11810,20 @@
     </row>
     <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="66">
         <f>C15+C13</f>
-        <v>226705.86249999999</v>
+        <v>86305.862500000003</v>
       </c>
       <c r="D17" s="66">
         <f>D15+D13</f>
-        <v>682564.65037878777</v>
+        <v>476928.28674242424</v>
       </c>
       <c r="E17" s="66">
         <f>E15+E13</f>
-        <v>896302.77159090899</v>
+        <v>617630.04431818193</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11771,7 +11835,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="65">
@@ -11789,7 +11853,7 @@
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="68">
         <f>-Inversion!D19</f>
@@ -11797,15 +11861,15 @@
       </c>
       <c r="C20" s="66">
         <f>SUM(C17:C19)</f>
-        <v>372327.61249999999</v>
+        <v>231927.61249999999</v>
       </c>
       <c r="D20" s="66">
         <f>SUM(D17:D19)</f>
-        <v>828186.40037878777</v>
+        <v>622550.03674242424</v>
       </c>
       <c r="E20" s="66">
         <f>SUM(E17:E19)</f>
-        <v>1041924.521590909</v>
+        <v>763251.79431818193</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11816,10 +11880,10 @@
       <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="165">
+      <c r="A22" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="163">
         <v>0.1885</v>
       </c>
       <c r="C22" s="65"/>
@@ -11827,21 +11891,21 @@
       <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="168">
+      <c r="A23" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="166">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>942092.98333529918</v>
+        <v>512385.2142462784</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="167">
+      <c r="A24" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="165">
         <f>IRR(B20:E20,30)</f>
-        <v>0.89854512313239021</v>
+        <v>0.59511242532213249</v>
       </c>
       <c r="G24" s="27"/>
     </row>
@@ -11856,7 +11920,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11872,50 +11936,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="199" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="146" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="145" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="145" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="200" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="201"/>
-      <c r="J4" s="202"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="F5" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="146" t="s">
-        <v>147</v>
+      <c r="B5" s="202"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="204"/>
+      <c r="F5" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="144" t="s">
+        <v>145</v>
       </c>
       <c r="H5" s="37">
         <v>1</v>
@@ -11929,7 +11993,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -11942,7 +12006,7 @@
         <v>36000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="37">
         <v>10</v>
@@ -11962,7 +12026,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -11975,7 +12039,7 @@
         <v>30000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="37">
         <v>10</v>
@@ -11995,7 +12059,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -12008,7 +12072,7 @@
         <v>16000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="37">
         <v>10</v>
@@ -12028,7 +12092,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -12041,7 +12105,7 @@
         <v>45000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="37">
         <v>10</v>
@@ -12060,25 +12124,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="208"/>
-      <c r="F10" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="209"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+      <c r="A10" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="207"/>
+      <c r="F10" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -12091,7 +12155,7 @@
         <v>150000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="37">
         <v>3</v>
@@ -12111,7 +12175,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -12124,7 +12188,7 @@
         <v>5000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="37">
         <v>3</v>
@@ -12143,25 +12207,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208"/>
-      <c r="F13" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+      <c r="A13" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="205"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="F13" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="208"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="210"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -12174,7 +12238,7 @@
         <v>31760</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="37">
         <v>3</v>
@@ -12194,7 +12258,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -12207,7 +12271,7 @@
         <v>40566</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="37">
         <v>3</v>
@@ -12227,7 +12291,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -12240,7 +12304,7 @@
         <v>14333</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -12259,25 +12323,25 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="206"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="208"/>
-      <c r="F17" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="209"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+      <c r="A17" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="205"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="207"/>
+      <c r="F17" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="208"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -12291,7 +12355,7 @@
         <v>209475</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="G18" s="37">
         <v>4</v>
@@ -12310,11 +12374,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="199" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
+      <c r="A19" s="198" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="41">
         <f>SUM(D6:D18)</f>
         <v>578134</v>
@@ -12337,37 +12401,37 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
-        <v>106</v>
+      <c r="A23" s="164" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="178" t="s">
+      <c r="A24" s="164" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="179" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="179" t="s">
-        <v>210</v>
+      <c r="C24" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="177" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="177">
+        <v>106</v>
+      </c>
+      <c r="B25" s="175">
         <f>D6</f>
         <v>36000</v>
       </c>
@@ -12385,9 +12449,9 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="177">
+        <v>107</v>
+      </c>
+      <c r="B26" s="175">
         <f>D7</f>
         <v>30000</v>
       </c>
@@ -12405,9 +12469,9 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="177">
+        <v>113</v>
+      </c>
+      <c r="B27" s="175">
         <f>D8</f>
         <v>16000</v>
       </c>
@@ -12425,9 +12489,9 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="177">
+        <v>109</v>
+      </c>
+      <c r="B28" s="175">
         <f>D9</f>
         <v>45000</v>
       </c>
@@ -12444,16 +12508,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
-        <v>142</v>
+      <c r="A29" s="145" t="s">
+        <v>140</v>
       </c>
       <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="177">
+        <v>110</v>
+      </c>
+      <c r="B30" s="175">
         <f>D11</f>
         <v>150000</v>
       </c>
@@ -12471,9 +12535,9 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="177">
+        <v>108</v>
+      </c>
+      <c r="B31" s="175">
         <f>D12</f>
         <v>5000</v>
       </c>
@@ -12490,10 +12554,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="179" t="s">
+      <c r="E32" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="180">
+      <c r="F32" s="178">
         <f>SUM(F25:F31)</f>
         <v>88900</v>
       </c>
@@ -12534,33 +12598,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="147" t="s">
+      <c r="A3" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="147" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="147" t="s">
-        <v>136</v>
+      <c r="E3" s="116"/>
+      <c r="F3" s="145" t="s">
+        <v>134</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
@@ -12572,22 +12636,22 @@
         <v>285</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="34">
         <f>D4*C4</f>
         <v>14250</v>
       </c>
-      <c r="H4" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="147" t="s">
-        <v>137</v>
+      <c r="H4" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="145" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="14">
         <v>20</v>
@@ -12599,14 +12663,14 @@
         <v>285</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" ref="F5:F14" si="0">D5*C5</f>
         <v>14250</v>
       </c>
-      <c r="H5" s="147" t="s">
-        <v>135</v>
+      <c r="H5" s="145" t="s">
+        <v>133</v>
       </c>
       <c r="I5" s="34">
         <v>285</v>
@@ -12614,7 +12678,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="14">
         <v>20</v>
@@ -12626,14 +12690,14 @@
         <v>285</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="H6" s="147" t="s">
-        <v>130</v>
+      <c r="H6" s="145" t="s">
+        <v>128</v>
       </c>
       <c r="I6" s="34">
         <v>270</v>
@@ -12641,7 +12705,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="14">
         <v>15</v>
@@ -12653,14 +12717,14 @@
         <v>285</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="H7" s="147" t="s">
-        <v>134</v>
+      <c r="H7" s="145" t="s">
+        <v>132</v>
       </c>
       <c r="I7" s="34">
         <v>300</v>
@@ -12668,7 +12732,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14">
         <v>18</v>
@@ -12680,7 +12744,7 @@
         <v>285</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
@@ -12688,26 +12752,26 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="147" t="s">
+      <c r="A9" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="147" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="147" t="s">
-        <v>136</v>
+      <c r="E9" s="116"/>
+      <c r="F9" s="145" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -12719,7 +12783,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
@@ -12728,7 +12792,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="14">
         <v>18</v>
@@ -12740,7 +12804,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
@@ -12749,7 +12813,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="14">
         <v>18</v>
@@ -12761,7 +12825,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
@@ -12770,7 +12834,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
@@ -12782,7 +12846,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
@@ -12791,7 +12855,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="14">
         <v>5</v>
@@ -12803,7 +12867,7 @@
         <v>270</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
@@ -12811,14 +12875,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="149">
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="147">
         <f>SUM(F4:F14)</f>
         <v>209475</v>
       </c>
@@ -12834,10 +12898,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O94"/>
+  <dimension ref="A3:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:O84"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12850,65 +12914,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
+      <c r="A3" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
+      <c r="A5" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -12950,7 +13014,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
       <c r="B7" s="85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="105">
         <f>SUM(D7:O8)</f>
@@ -12995,7 +13059,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -13020,7 +13084,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="102">
         <v>0.17</v>
@@ -13080,7 +13144,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="102">
         <v>0.06</v>
@@ -13140,7 +13204,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="106">
         <f>D7-D9-D10</f>
@@ -13192,73 +13256,73 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
+      <c r="A15" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="212"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="144">
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="142">
         <v>1</v>
       </c>
-      <c r="E16" s="144">
+      <c r="E16" s="142">
         <v>2</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="142">
         <v>3</v>
       </c>
-      <c r="G16" s="144">
+      <c r="G16" s="142">
         <v>4</v>
       </c>
-      <c r="H16" s="144">
+      <c r="H16" s="142">
         <v>5</v>
       </c>
-      <c r="I16" s="144">
+      <c r="I16" s="142">
         <v>6</v>
       </c>
-      <c r="J16" s="144">
+      <c r="J16" s="142">
         <v>7</v>
       </c>
-      <c r="K16" s="144">
+      <c r="K16" s="142">
         <v>8</v>
       </c>
-      <c r="L16" s="144">
+      <c r="L16" s="142">
         <v>9</v>
       </c>
-      <c r="M16" s="144">
+      <c r="M16" s="142">
         <v>10</v>
       </c>
-      <c r="N16" s="144">
+      <c r="N16" s="142">
         <v>11</v>
       </c>
-      <c r="O16" s="144">
+      <c r="O16" s="142">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="105">
         <f>SUM(D17:O18)</f>
@@ -13303,7 +13367,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -13328,7 +13392,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="102">
         <v>0.17</v>
@@ -13388,7 +13452,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="102">
         <v>0.06</v>
@@ -13448,7 +13512,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="106">
         <f>D17-D19-D20</f>
@@ -13500,73 +13564,73 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
+      <c r="A24" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="212"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="144">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="142">
         <v>1</v>
       </c>
-      <c r="E25" s="144">
+      <c r="E25" s="142">
         <v>2</v>
       </c>
-      <c r="F25" s="144">
+      <c r="F25" s="142">
         <v>3</v>
       </c>
-      <c r="G25" s="144">
+      <c r="G25" s="142">
         <v>4</v>
       </c>
-      <c r="H25" s="144">
+      <c r="H25" s="142">
         <v>5</v>
       </c>
-      <c r="I25" s="144">
+      <c r="I25" s="142">
         <v>6</v>
       </c>
-      <c r="J25" s="144">
+      <c r="J25" s="142">
         <v>7</v>
       </c>
-      <c r="K25" s="144">
+      <c r="K25" s="142">
         <v>8</v>
       </c>
-      <c r="L25" s="144">
+      <c r="L25" s="142">
         <v>9</v>
       </c>
-      <c r="M25" s="144">
+      <c r="M25" s="142">
         <v>10</v>
       </c>
-      <c r="N25" s="144">
+      <c r="N25" s="142">
         <v>11</v>
       </c>
-      <c r="O25" s="144">
+      <c r="O25" s="142">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
       <c r="B26" s="85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="105">
         <f>SUM(D26:O27)</f>
@@ -13611,7 +13675,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
@@ -13636,7 +13700,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="102">
         <v>0.17</v>
@@ -13696,7 +13760,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="102">
         <v>0.06</v>
@@ -13756,7 +13820,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="106">
         <f>D26-D28-D29</f>
@@ -13807,1668 +13871,1992 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="216" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="218"/>
+    </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="159" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
+      <c r="C34" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="85">
+        <v>1</v>
+      </c>
+      <c r="E34" s="85">
+        <v>2</v>
+      </c>
+      <c r="F34" s="85">
+        <v>3</v>
+      </c>
+      <c r="G34" s="85">
+        <v>4</v>
+      </c>
+      <c r="H34" s="85">
+        <v>5</v>
+      </c>
+      <c r="I34" s="85">
+        <v>6</v>
+      </c>
+      <c r="J34" s="85">
+        <v>7</v>
+      </c>
+      <c r="K34" s="85">
+        <v>8</v>
+      </c>
+      <c r="L34" s="85">
+        <v>9</v>
+      </c>
+      <c r="M34" s="85">
+        <v>10</v>
+      </c>
+      <c r="N34" s="85">
+        <v>11</v>
+      </c>
+      <c r="O34" s="85">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="143"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="105">
+        <f>SUM(D35:O36)</f>
+        <v>234000</v>
+      </c>
+      <c r="D35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="F35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="G35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="H35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="I35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="J35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="K35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="L35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="M35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="N35" s="90">
+        <v>18000</v>
+      </c>
+      <c r="O35" s="90">
+        <v>18000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="213" t="s">
+      <c r="A36" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="90">
+        <f>I35/2</f>
+        <v>9000</v>
+      </c>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="90">
+        <f>O35/2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="102">
+        <v>0.17</v>
+      </c>
+      <c r="C37" s="90">
+        <f t="shared" ref="C37:H37" si="19">C35*$B$9</f>
+        <v>39780</v>
+      </c>
+      <c r="D37" s="90">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="E37" s="90">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="F37" s="90">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="G37" s="90">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="H37" s="90">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="I37" s="90">
+        <f>(I35+I36)*$B$9</f>
+        <v>4590</v>
+      </c>
+      <c r="J37" s="90">
+        <f>J35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="K37" s="90">
+        <f>K35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="L37" s="90">
+        <f>L35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="M37" s="90">
+        <f>M35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="N37" s="90">
+        <f>N35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="O37" s="90">
+        <f>(O35+O36)*$B$9</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="C38" s="90">
+        <f t="shared" ref="C38:H38" si="20">C35*$B$10</f>
+        <v>14040</v>
+      </c>
+      <c r="D38" s="90">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="E38" s="90">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="F38" s="90">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="G38" s="90">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="H38" s="90">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="I38" s="90">
+        <f>(I35+I36)*$B$10</f>
+        <v>1620</v>
+      </c>
+      <c r="J38" s="90">
+        <f>J35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="K38" s="90">
+        <f>K35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="L38" s="90">
+        <f>L35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="M38" s="90">
+        <f>M35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="N38" s="90">
+        <f>N35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="O38" s="90">
+        <f>(O35+O36)*$B$10</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="213"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="74" t="s">
+      <c r="D39" s="106">
+        <f>D35-D37-D38</f>
+        <v>13860</v>
+      </c>
+      <c r="E39" s="106">
+        <f t="shared" ref="E39:H39" si="21">E35-E37-E38</f>
+        <v>13860</v>
+      </c>
+      <c r="F39" s="106">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="G39" s="106">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="H39" s="106">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="I39" s="106">
+        <f>I35+I36-I37-I38</f>
+        <v>20790</v>
+      </c>
+      <c r="J39" s="106">
+        <f t="shared" ref="J39:N39" si="22">J35-J37-J38</f>
+        <v>13860</v>
+      </c>
+      <c r="K39" s="106">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="L39" s="106">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="M39" s="106">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="N39" s="106">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="O39" s="106">
+        <f>O35+O36-O37-O38</f>
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="158"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="85">
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="216" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="217"/>
+      <c r="J44" s="217"/>
+      <c r="K44" s="217"/>
+      <c r="L44" s="217"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="217"/>
+      <c r="O44" s="218"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="85">
         <v>1</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E45" s="85">
         <v>2</v>
       </c>
-      <c r="F37" s="85">
+      <c r="F45" s="85">
         <v>3</v>
       </c>
-      <c r="G37" s="85">
+      <c r="G45" s="85">
         <v>4</v>
       </c>
-      <c r="H37" s="85">
+      <c r="H45" s="85">
         <v>5</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I45" s="85">
         <v>6</v>
       </c>
-      <c r="J37" s="85">
+      <c r="J45" s="85">
         <v>7</v>
       </c>
-      <c r="K37" s="85">
+      <c r="K45" s="85">
         <v>8</v>
       </c>
-      <c r="L37" s="85">
+      <c r="L45" s="85">
         <v>9</v>
       </c>
-      <c r="M37" s="85">
+      <c r="M45" s="85">
         <v>10</v>
       </c>
-      <c r="N37" s="85">
+      <c r="N45" s="85">
         <v>11</v>
       </c>
-      <c r="O37" s="85">
+      <c r="O45" s="85">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="105">
-        <f>SUM(D38:O39)</f>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="105">
+        <f>SUM(D46:O47)</f>
         <v>364000</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D46" s="90">
         <v>28000</v>
       </c>
-      <c r="E38" s="90">
+      <c r="E46" s="90">
         <v>28000</v>
       </c>
-      <c r="F38" s="90">
+      <c r="F46" s="90">
         <v>28000</v>
       </c>
-      <c r="G38" s="90">
+      <c r="G46" s="90">
         <v>28000</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H46" s="90">
         <v>28000</v>
       </c>
-      <c r="I38" s="90">
+      <c r="I46" s="90">
         <v>28000</v>
       </c>
-      <c r="J38" s="90">
+      <c r="J46" s="90">
         <v>28000</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K46" s="90">
         <v>28000</v>
       </c>
-      <c r="L38" s="90">
+      <c r="L46" s="90">
         <v>28000</v>
       </c>
-      <c r="M38" s="90">
+      <c r="M46" s="90">
         <v>28000</v>
       </c>
-      <c r="N38" s="90">
+      <c r="N46" s="90">
         <v>28000</v>
       </c>
-      <c r="O38" s="90">
+      <c r="O46" s="90">
         <v>28000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="90">
-        <f>I38/2</f>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="90">
+        <f>I46/2</f>
         <v>14000</v>
       </c>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="90">
-        <f>O38/2</f>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="90">
+        <f>O46/2</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="102">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="102">
         <v>0.17</v>
       </c>
-      <c r="C40" s="90">
-        <f t="shared" ref="C40:H40" si="19">C38*$B$9</f>
+      <c r="C48" s="90">
+        <f t="shared" ref="C48:H48" si="23">C46*$B$9</f>
         <v>61880.000000000007</v>
       </c>
-      <c r="D40" s="90">
-        <f t="shared" si="19"/>
+      <c r="D48" s="90">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="E40" s="90">
-        <f t="shared" si="19"/>
+      <c r="E48" s="90">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="F40" s="90">
-        <f t="shared" si="19"/>
+      <c r="F48" s="90">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="G40" s="90">
-        <f t="shared" si="19"/>
+      <c r="G48" s="90">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="H40" s="90">
-        <f t="shared" si="19"/>
+      <c r="H48" s="90">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="I40" s="90">
-        <f>(I38+I39)*$B$9</f>
+      <c r="I48" s="90">
+        <f>(I46+I47)*$B$9</f>
         <v>7140.0000000000009</v>
       </c>
-      <c r="J40" s="90">
-        <f>J38*$B$9</f>
+      <c r="J48" s="90">
+        <f>J46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="K40" s="90">
-        <f>K38*$B$9</f>
+      <c r="K48" s="90">
+        <f>K46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="L40" s="90">
-        <f>L38*$B$9</f>
+      <c r="L48" s="90">
+        <f>L46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="M40" s="90">
-        <f>M38*$B$9</f>
+      <c r="M48" s="90">
+        <f>M46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="N40" s="90">
-        <f>N38*$B$9</f>
+      <c r="N48" s="90">
+        <f>N46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="O40" s="90">
-        <f>(O38+O39)*$B$9</f>
+      <c r="O48" s="90">
+        <f>(O46+O47)*$B$9</f>
         <v>7140.0000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="C41" s="90">
-        <f t="shared" ref="C41:H41" si="20">C38*$B$10</f>
-        <v>21840</v>
-      </c>
-      <c r="D41" s="90">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="E41" s="90">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="F41" s="90">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="G41" s="90">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="H41" s="90">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="I41" s="90">
-        <f>(I38+I39)*$B$10</f>
-        <v>2520</v>
-      </c>
-      <c r="J41" s="90">
-        <f>J38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="K41" s="90">
-        <f>K38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="L41" s="90">
-        <f>L38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="M41" s="90">
-        <f>M38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="N41" s="90">
-        <f>N38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="O41" s="90">
-        <f>(O38+O39)*$B$10</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C42" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="106">
-        <f>D38-D40-D41</f>
-        <v>21560</v>
-      </c>
-      <c r="E42" s="106">
-        <f t="shared" ref="E42" si="21">E38-E40-E41</f>
-        <v>21560</v>
-      </c>
-      <c r="F42" s="106">
-        <f t="shared" ref="F42" si="22">F38-F40-F41</f>
-        <v>21560</v>
-      </c>
-      <c r="G42" s="106">
-        <f t="shared" ref="G42" si="23">G38-G40-G41</f>
-        <v>21560</v>
-      </c>
-      <c r="H42" s="106">
-        <f t="shared" ref="H42" si="24">H38-H40-H41</f>
-        <v>21560</v>
-      </c>
-      <c r="I42" s="106">
-        <f>I38+I39-I40-I41</f>
-        <v>32340</v>
-      </c>
-      <c r="J42" s="106">
-        <f t="shared" ref="J42:N42" si="25">J38-J40-J41</f>
-        <v>21560</v>
-      </c>
-      <c r="K42" s="106">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="L42" s="106">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="M42" s="106">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="N42" s="106">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="O42" s="106">
-        <f>O38+O39-O40-O41</f>
-        <v>32340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="213"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
-      <c r="O46" s="213"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="143"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="144">
-        <v>1</v>
-      </c>
-      <c r="E47" s="144">
-        <v>2</v>
-      </c>
-      <c r="F47" s="144">
-        <v>3</v>
-      </c>
-      <c r="G47" s="144">
-        <v>4</v>
-      </c>
-      <c r="H47" s="144">
-        <v>5</v>
-      </c>
-      <c r="I47" s="144">
-        <v>6</v>
-      </c>
-      <c r="J47" s="144">
-        <v>7</v>
-      </c>
-      <c r="K47" s="144">
-        <v>8</v>
-      </c>
-      <c r="L47" s="144">
-        <v>9</v>
-      </c>
-      <c r="M47" s="144">
-        <v>10</v>
-      </c>
-      <c r="N47" s="144">
-        <v>11</v>
-      </c>
-      <c r="O47" s="144">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="105">
-        <f>SUM(D48:O49)</f>
-        <v>390000</v>
-      </c>
-      <c r="D48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="E48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="F48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="G48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="H48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="I48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="J48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="K48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="L48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="M48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="N48" s="90">
-        <v>30000</v>
-      </c>
-      <c r="O48" s="90">
-        <v>30000</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
+      <c r="B49" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="C49" s="90">
+        <f t="shared" ref="C49:H49" si="24">C46*$B$10</f>
+        <v>21840</v>
+      </c>
+      <c r="D49" s="90">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="E49" s="90">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="F49" s="90">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="G49" s="90">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="H49" s="90">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
       <c r="I49" s="90">
-        <f>I48/2</f>
+        <f>(I46+I47)*$B$10</f>
+        <v>2520</v>
+      </c>
+      <c r="J49" s="90">
+        <f>J46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="K49" s="90">
+        <f>K46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="L49" s="90">
+        <f>L46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="M49" s="90">
+        <f>M46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="N49" s="90">
+        <f>N46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="O49" s="90">
+        <f>(O46+O47)*$B$10</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C50" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="106">
+        <f>D46-D48-D49</f>
+        <v>21560</v>
+      </c>
+      <c r="E50" s="106">
+        <f t="shared" ref="E50" si="25">E46-E48-E49</f>
+        <v>21560</v>
+      </c>
+      <c r="F50" s="106">
+        <f t="shared" ref="F50" si="26">F46-F48-F49</f>
+        <v>21560</v>
+      </c>
+      <c r="G50" s="106">
+        <f t="shared" ref="G50" si="27">G46-G48-G49</f>
+        <v>21560</v>
+      </c>
+      <c r="H50" s="106">
+        <f t="shared" ref="H50" si="28">H46-H48-H49</f>
+        <v>21560</v>
+      </c>
+      <c r="I50" s="106">
+        <f>I46+I47-I48-I49</f>
+        <v>32340</v>
+      </c>
+      <c r="J50" s="106">
+        <f t="shared" ref="J50:N50" si="29">J46-J48-J49</f>
+        <v>21560</v>
+      </c>
+      <c r="K50" s="106">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="L50" s="106">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="M50" s="106">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="N50" s="106">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="O50" s="106">
+        <f>O46+O47-O48-O49</f>
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="141"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="212"/>
+      <c r="F54" s="212"/>
+      <c r="G54" s="212"/>
+      <c r="H54" s="212"/>
+      <c r="I54" s="212"/>
+      <c r="J54" s="212"/>
+      <c r="K54" s="212"/>
+      <c r="L54" s="212"/>
+      <c r="M54" s="212"/>
+      <c r="N54" s="212"/>
+      <c r="O54" s="212"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="142">
+        <v>1</v>
+      </c>
+      <c r="E55" s="142">
+        <v>2</v>
+      </c>
+      <c r="F55" s="142">
+        <v>3</v>
+      </c>
+      <c r="G55" s="142">
+        <v>4</v>
+      </c>
+      <c r="H55" s="142">
+        <v>5</v>
+      </c>
+      <c r="I55" s="142">
+        <v>6</v>
+      </c>
+      <c r="J55" s="142">
+        <v>7</v>
+      </c>
+      <c r="K55" s="142">
+        <v>8</v>
+      </c>
+      <c r="L55" s="142">
+        <v>9</v>
+      </c>
+      <c r="M55" s="142">
+        <v>10</v>
+      </c>
+      <c r="N55" s="142">
+        <v>11</v>
+      </c>
+      <c r="O55" s="142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="85"/>
+      <c r="B56" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="105">
+        <f>SUM(D56:O57)</f>
+        <v>390000</v>
+      </c>
+      <c r="D56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="E56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="F56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="H56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="I56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="J56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="K56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="L56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="M56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="N56" s="90">
+        <v>30000</v>
+      </c>
+      <c r="O56" s="90">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="90">
+        <f>I56/2</f>
         <v>15000</v>
       </c>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="90">
-        <f>O48/2</f>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="90">
+        <f>O56/2</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="102">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="102">
         <v>0.17</v>
       </c>
-      <c r="C50" s="90">
-        <f t="shared" ref="C50:H50" si="26">C48*$B$9</f>
+      <c r="C58" s="90">
+        <f t="shared" ref="C58:H58" si="30">C56*$B$9</f>
         <v>66300</v>
       </c>
-      <c r="D50" s="90">
-        <f t="shared" si="26"/>
+      <c r="D58" s="90">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="E50" s="90">
-        <f t="shared" si="26"/>
+      <c r="E58" s="90">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="F50" s="90">
-        <f t="shared" si="26"/>
+      <c r="F58" s="90">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="G50" s="90">
-        <f t="shared" si="26"/>
+      <c r="G58" s="90">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="H50" s="90">
-        <f t="shared" si="26"/>
+      <c r="H58" s="90">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="I50" s="90">
-        <f>(I48+I49)*$B$9</f>
+      <c r="I58" s="90">
+        <f>(I56+I57)*$B$9</f>
         <v>7650.0000000000009</v>
       </c>
-      <c r="J50" s="90">
-        <f>J48*$B$9</f>
+      <c r="J58" s="90">
+        <f>J56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="K50" s="90">
-        <f>K48*$B$9</f>
+      <c r="K58" s="90">
+        <f>K56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="L50" s="90">
-        <f>L48*$B$9</f>
+      <c r="L58" s="90">
+        <f>L56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="M50" s="90">
-        <f>M48*$B$9</f>
+      <c r="M58" s="90">
+        <f>M56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="N50" s="90">
-        <f>N48*$B$9</f>
+      <c r="N58" s="90">
+        <f>N56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="O50" s="90">
-        <f>(O48+O49)*$B$9</f>
+      <c r="O58" s="90">
+        <f>(O56+O57)*$B$9</f>
         <v>7650.0000000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="C51" s="90">
-        <f t="shared" ref="C51:H51" si="27">C48*$B$10</f>
-        <v>23400</v>
-      </c>
-      <c r="D51" s="90">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="E51" s="90">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="F51" s="90">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="G51" s="90">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="H51" s="90">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="I51" s="90">
-        <f>(I48+I49)*$B$10</f>
-        <v>2700</v>
-      </c>
-      <c r="J51" s="90">
-        <f>J48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="K51" s="90">
-        <f>K48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="L51" s="90">
-        <f>L48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="M51" s="90">
-        <f>M48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="N51" s="90">
-        <f>N48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="O51" s="90">
-        <f>(O48+O49)*$B$10</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C52" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="106">
-        <f>D48-D50-D51</f>
-        <v>23100</v>
-      </c>
-      <c r="E52" s="106">
-        <f t="shared" ref="E52" si="28">E48-E50-E51</f>
-        <v>23100</v>
-      </c>
-      <c r="F52" s="106">
-        <f t="shared" ref="F52" si="29">F48-F50-F51</f>
-        <v>23100</v>
-      </c>
-      <c r="G52" s="106">
-        <f t="shared" ref="G52" si="30">G48-G50-G51</f>
-        <v>23100</v>
-      </c>
-      <c r="H52" s="106">
-        <f t="shared" ref="H52" si="31">H48-H50-H51</f>
-        <v>23100</v>
-      </c>
-      <c r="I52" s="106">
-        <f>I48+I49-I50-I51</f>
-        <v>34650</v>
-      </c>
-      <c r="J52" s="106">
-        <f t="shared" ref="J52:N52" si="32">J48-J50-J51</f>
-        <v>23100</v>
-      </c>
-      <c r="K52" s="106">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="L52" s="106">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="M52" s="106">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="N52" s="106">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="O52" s="106">
-        <f>O48+O49-O50-O51</f>
-        <v>34650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="217"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="217"/>
-      <c r="H56" s="217"/>
-      <c r="I56" s="217"/>
-      <c r="J56" s="217"/>
-      <c r="K56" s="217"/>
-      <c r="L56" s="217"/>
-      <c r="M56" s="217"/>
-      <c r="N56" s="217"/>
-      <c r="O56" s="217"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C57" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="85">
-        <v>1</v>
-      </c>
-      <c r="E57" s="85">
-        <v>2</v>
-      </c>
-      <c r="F57" s="85">
-        <v>3</v>
-      </c>
-      <c r="G57" s="85">
-        <v>4</v>
-      </c>
-      <c r="H57" s="85">
-        <v>5</v>
-      </c>
-      <c r="I57" s="85">
-        <v>6</v>
-      </c>
-      <c r="J57" s="85">
-        <v>7</v>
-      </c>
-      <c r="K57" s="85">
-        <v>8</v>
-      </c>
-      <c r="L57" s="85">
-        <v>9</v>
-      </c>
-      <c r="M57" s="85">
-        <v>10</v>
-      </c>
-      <c r="N57" s="85">
-        <v>11</v>
-      </c>
-      <c r="O57" s="85">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="105">
-        <f>SUM(D58:O59)</f>
-        <v>377000</v>
-      </c>
-      <c r="D58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="E58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="F58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="G58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="H58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="I58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="J58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="K58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="L58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="M58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="N58" s="90">
-        <v>29000</v>
-      </c>
-      <c r="O58" s="90">
-        <v>29000</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
+      <c r="B59" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="C59" s="90">
+        <f t="shared" ref="C59:H59" si="31">C56*$B$10</f>
+        <v>23400</v>
+      </c>
+      <c r="D59" s="90">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="E59" s="90">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="F59" s="90">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="G59" s="90">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="H59" s="90">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
       <c r="I59" s="90">
-        <f>I58/2</f>
+        <f>(I56+I57)*$B$10</f>
+        <v>2700</v>
+      </c>
+      <c r="J59" s="90">
+        <f>J56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="K59" s="90">
+        <f>K56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="L59" s="90">
+        <f>L56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="M59" s="90">
+        <f>M56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="N59" s="90">
+        <f>N56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="O59" s="90">
+        <f>(O56+O57)*$B$10</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="106">
+        <f>D56-D58-D59</f>
+        <v>23100</v>
+      </c>
+      <c r="E60" s="106">
+        <f t="shared" ref="E60" si="32">E56-E58-E59</f>
+        <v>23100</v>
+      </c>
+      <c r="F60" s="106">
+        <f t="shared" ref="F60" si="33">F56-F58-F59</f>
+        <v>23100</v>
+      </c>
+      <c r="G60" s="106">
+        <f t="shared" ref="G60" si="34">G56-G58-G59</f>
+        <v>23100</v>
+      </c>
+      <c r="H60" s="106">
+        <f t="shared" ref="H60" si="35">H56-H58-H59</f>
+        <v>23100</v>
+      </c>
+      <c r="I60" s="106">
+        <f>I56+I57-I58-I59</f>
+        <v>34650</v>
+      </c>
+      <c r="J60" s="106">
+        <f t="shared" ref="J60:N60" si="36">J56-J58-J59</f>
+        <v>23100</v>
+      </c>
+      <c r="K60" s="106">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="L60" s="106">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="M60" s="106">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="N60" s="106">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="O60" s="106">
+        <f>O56+O57-O58-O59</f>
+        <v>34650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="212"/>
+      <c r="F64" s="212"/>
+      <c r="G64" s="212"/>
+      <c r="H64" s="212"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="212"/>
+      <c r="K64" s="212"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="212"/>
+      <c r="N64" s="212"/>
+      <c r="O64" s="212"/>
+    </row>
+    <row r="65" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="142">
+        <v>1</v>
+      </c>
+      <c r="E65" s="142">
+        <v>2</v>
+      </c>
+      <c r="F65" s="142">
+        <v>3</v>
+      </c>
+      <c r="G65" s="142">
+        <v>4</v>
+      </c>
+      <c r="H65" s="142">
+        <v>5</v>
+      </c>
+      <c r="I65" s="142">
+        <v>6</v>
+      </c>
+      <c r="J65" s="142">
+        <v>7</v>
+      </c>
+      <c r="K65" s="142">
+        <v>8</v>
+      </c>
+      <c r="L65" s="142">
+        <v>9</v>
+      </c>
+      <c r="M65" s="142">
+        <v>10</v>
+      </c>
+      <c r="N65" s="142">
+        <v>11</v>
+      </c>
+      <c r="O65" s="142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="85"/>
+      <c r="B66" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="105">
+        <f>SUM(D66:O67)</f>
+        <v>377000</v>
+      </c>
+      <c r="D66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="E66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="F66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="G66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="H66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="I66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="J66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="K66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="L66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="M66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="N66" s="90">
+        <v>29000</v>
+      </c>
+      <c r="O66" s="90">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="90">
+        <f>I66/2</f>
         <v>14500</v>
       </c>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="90">
-        <f>O58/2</f>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
+      <c r="N67" s="85"/>
+      <c r="O67" s="90">
+        <f>O66/2</f>
         <v>14500</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="85" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="102">
+        <v>0.17</v>
+      </c>
+      <c r="C68" s="90">
+        <f t="shared" ref="C68:H68" si="37">C66*$B$9</f>
+        <v>64090.000000000007</v>
+      </c>
+      <c r="D68" s="90">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="E68" s="90">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="F68" s="90">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="G68" s="90">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="H68" s="90">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="I68" s="90">
+        <f>(I66+I67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+      <c r="J68" s="90">
+        <f>J66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="K68" s="90">
+        <f>K66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="L68" s="90">
+        <f>L66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="M68" s="90">
+        <f>M66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="N68" s="90">
+        <f>N66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="O68" s="90">
+        <f>(O66+O67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="C69" s="90">
+        <f t="shared" ref="C69:H69" si="38">C66*$B$10</f>
+        <v>22620</v>
+      </c>
+      <c r="D69" s="90">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="E69" s="90">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="F69" s="90">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="G69" s="90">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="H69" s="90">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="I69" s="90">
+        <f>(I66+I67)*$B$10</f>
+        <v>2610</v>
+      </c>
+      <c r="J69" s="90">
+        <f>J66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="K69" s="90">
+        <f>K66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="L69" s="90">
+        <f>L66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="M69" s="90">
+        <f>M66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="N69" s="90">
+        <f>N66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="O69" s="90">
+        <f>(O66+O67)*$B$10</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C70" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="106">
+        <f>D66-D68-D69</f>
+        <v>22330</v>
+      </c>
+      <c r="E70" s="106">
+        <f t="shared" ref="E70" si="39">E66-E68-E69</f>
+        <v>22330</v>
+      </c>
+      <c r="F70" s="106">
+        <f t="shared" ref="F70" si="40">F66-F68-F69</f>
+        <v>22330</v>
+      </c>
+      <c r="G70" s="106">
+        <f t="shared" ref="G70" si="41">G66-G68-G69</f>
+        <v>22330</v>
+      </c>
+      <c r="H70" s="106">
+        <f t="shared" ref="H70" si="42">H66-H68-H69</f>
+        <v>22330</v>
+      </c>
+      <c r="I70" s="106">
+        <f>I66+I67-I68-I69</f>
+        <v>33495</v>
+      </c>
+      <c r="J70" s="106">
+        <f t="shared" ref="J70:N70" si="43">J66-J68-J69</f>
+        <v>22330</v>
+      </c>
+      <c r="K70" s="106">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="L70" s="106">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="M70" s="106">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="N70" s="106">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="O70" s="106">
+        <f>O66+O67-O68-O69</f>
+        <v>33495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="158"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="141"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="102">
+      <c r="E76" s="212"/>
+      <c r="F76" s="212"/>
+      <c r="G76" s="212"/>
+      <c r="H76" s="212"/>
+      <c r="I76" s="212"/>
+      <c r="J76" s="212"/>
+      <c r="K76" s="212"/>
+      <c r="L76" s="212"/>
+      <c r="M76" s="212"/>
+      <c r="N76" s="212"/>
+      <c r="O76" s="212"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="141"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="142">
+        <v>1</v>
+      </c>
+      <c r="E77" s="142">
+        <v>2</v>
+      </c>
+      <c r="F77" s="142">
+        <v>3</v>
+      </c>
+      <c r="G77" s="142">
+        <v>4</v>
+      </c>
+      <c r="H77" s="142">
+        <v>5</v>
+      </c>
+      <c r="I77" s="142">
+        <v>6</v>
+      </c>
+      <c r="J77" s="142">
+        <v>7</v>
+      </c>
+      <c r="K77" s="142">
+        <v>8</v>
+      </c>
+      <c r="L77" s="142">
+        <v>9</v>
+      </c>
+      <c r="M77" s="142">
+        <v>10</v>
+      </c>
+      <c r="N77" s="142">
+        <v>11</v>
+      </c>
+      <c r="O77" s="142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="85"/>
+      <c r="B78" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="105">
+        <f>SUM(D78:O79)</f>
+        <v>416000</v>
+      </c>
+      <c r="D78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="E78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="F78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="G78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="H78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="I78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="J78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="K78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="L78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="M78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="N78" s="90">
+        <v>32000</v>
+      </c>
+      <c r="O78" s="90">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="90">
+        <f>I78/2</f>
+        <v>16000</v>
+      </c>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="85"/>
+      <c r="O79" s="90">
+        <f>O78/2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="102">
         <v>0.17</v>
       </c>
-      <c r="C60" s="90">
-        <f t="shared" ref="C60:H60" si="33">C58*$B$9</f>
-        <v>64090.000000000007</v>
-      </c>
-      <c r="D60" s="90">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="E60" s="90">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="F60" s="90">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="G60" s="90">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="H60" s="90">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="I60" s="90">
-        <f>(I58+I59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-      <c r="J60" s="90">
-        <f>J58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="K60" s="90">
-        <f>K58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="L60" s="90">
-        <f>L58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="M60" s="90">
-        <f>M58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="N60" s="90">
-        <f>N58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="O60" s="90">
-        <f>(O58+O59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="C61" s="90">
-        <f t="shared" ref="C61:H61" si="34">C58*$B$10</f>
-        <v>22620</v>
-      </c>
-      <c r="D61" s="90">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="E61" s="90">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="F61" s="90">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="G61" s="90">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="H61" s="90">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="I61" s="90">
-        <f>(I58+I59)*$B$10</f>
-        <v>2610</v>
-      </c>
-      <c r="J61" s="90">
-        <f>J58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="K61" s="90">
-        <f>K58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="L61" s="90">
-        <f>L58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="M61" s="90">
-        <f>M58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="N61" s="90">
-        <f>N58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="O61" s="90">
-        <f>(O58+O59)*$B$10</f>
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C62" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="106">
-        <f>D58-D60-D61</f>
-        <v>22330</v>
-      </c>
-      <c r="E62" s="106">
-        <f t="shared" ref="E62" si="35">E58-E60-E61</f>
-        <v>22330</v>
-      </c>
-      <c r="F62" s="106">
-        <f t="shared" ref="F62" si="36">F58-F60-F61</f>
-        <v>22330</v>
-      </c>
-      <c r="G62" s="106">
-        <f t="shared" ref="G62" si="37">G58-G60-G61</f>
-        <v>22330</v>
-      </c>
-      <c r="H62" s="106">
-        <f t="shared" ref="H62" si="38">H58-H60-H61</f>
-        <v>22330</v>
-      </c>
-      <c r="I62" s="106">
-        <f>I58+I59-I60-I61</f>
-        <v>33495</v>
-      </c>
-      <c r="J62" s="106">
-        <f t="shared" ref="J62:N62" si="39">J58-J60-J61</f>
-        <v>22330</v>
-      </c>
-      <c r="K62" s="106">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="L62" s="106">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="M62" s="106">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="N62" s="106">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="O62" s="106">
-        <f>O58+O59-O60-O61</f>
-        <v>33495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="160"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="160"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="160"/>
-      <c r="N65" s="160"/>
-      <c r="O65" s="160"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="143" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="143"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="213"/>
-      <c r="F68" s="213"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="213"/>
-      <c r="L68" s="213"/>
-      <c r="M68" s="213"/>
-      <c r="N68" s="213"/>
-      <c r="O68" s="213"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="143"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="144">
-        <v>1</v>
-      </c>
-      <c r="E69" s="144">
-        <v>2</v>
-      </c>
-      <c r="F69" s="144">
-        <v>3</v>
-      </c>
-      <c r="G69" s="144">
-        <v>4</v>
-      </c>
-      <c r="H69" s="144">
-        <v>5</v>
-      </c>
-      <c r="I69" s="144">
-        <v>6</v>
-      </c>
-      <c r="J69" s="144">
-        <v>7</v>
-      </c>
-      <c r="K69" s="144">
-        <v>8</v>
-      </c>
-      <c r="L69" s="144">
-        <v>9</v>
-      </c>
-      <c r="M69" s="144">
-        <v>10</v>
-      </c>
-      <c r="N69" s="144">
-        <v>11</v>
-      </c>
-      <c r="O69" s="144">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="85"/>
-      <c r="B70" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="105">
-        <f>SUM(D70:O71)</f>
-        <v>416000</v>
-      </c>
-      <c r="D70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="E70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="F70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="G70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="H70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="I70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="J70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="K70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="L70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="M70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="N70" s="90">
-        <v>32000</v>
-      </c>
-      <c r="O70" s="90">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="90">
-        <f>I70/2</f>
-        <v>16000</v>
-      </c>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="90">
-        <f>O70/2</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="102">
-        <v>0.17</v>
-      </c>
-      <c r="C72" s="90">
-        <f t="shared" ref="C72:H72" si="40">C70*$B$9</f>
+      <c r="C80" s="90">
+        <f t="shared" ref="C80:H80" si="44">C78*$B$9</f>
         <v>70720</v>
       </c>
-      <c r="D72" s="90">
-        <f t="shared" si="40"/>
+      <c r="D80" s="90">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="E72" s="90">
-        <f t="shared" si="40"/>
+      <c r="E80" s="90">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="F72" s="90">
-        <f t="shared" si="40"/>
+      <c r="F80" s="90">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="G72" s="90">
-        <f t="shared" si="40"/>
+      <c r="G80" s="90">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="H72" s="90">
-        <f t="shared" si="40"/>
+      <c r="H80" s="90">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="I72" s="90">
-        <f>(I70+I71)*$B$9</f>
+      <c r="I80" s="90">
+        <f>(I78+I79)*$B$9</f>
         <v>8160.0000000000009</v>
       </c>
-      <c r="J72" s="90">
-        <f>J70*$B$9</f>
+      <c r="J80" s="90">
+        <f>J78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="K72" s="90">
-        <f>K70*$B$9</f>
+      <c r="K80" s="90">
+        <f>K78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="L72" s="90">
-        <f>L70*$B$9</f>
+      <c r="L80" s="90">
+        <f>L78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="M72" s="90">
-        <f>M70*$B$9</f>
+      <c r="M80" s="90">
+        <f>M78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="N72" s="90">
-        <f>N70*$B$9</f>
+      <c r="N80" s="90">
+        <f>N78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="O72" s="90">
-        <f>(O70+O71)*$B$9</f>
+      <c r="O80" s="90">
+        <f>(O78+O79)*$B$9</f>
         <v>8160.0000000000009</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="C73" s="90">
-        <f t="shared" ref="C73:H73" si="41">C70*$B$10</f>
-        <v>24960</v>
-      </c>
-      <c r="D73" s="90">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="E73" s="90">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="F73" s="90">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="G73" s="90">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="H73" s="90">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="I73" s="90">
-        <f>(I70+I71)*$B$10</f>
-        <v>2880</v>
-      </c>
-      <c r="J73" s="90">
-        <f>J70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="K73" s="90">
-        <f>K70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="L73" s="90">
-        <f>L70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="M73" s="90">
-        <f>M70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="N73" s="90">
-        <f>N70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="O73" s="90">
-        <f>(O70+O71)*$B$10</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C74" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="106">
-        <f>D70-D72-D73</f>
-        <v>24640</v>
-      </c>
-      <c r="E74" s="106">
-        <f t="shared" ref="E74" si="42">E70-E72-E73</f>
-        <v>24640</v>
-      </c>
-      <c r="F74" s="106">
-        <f t="shared" ref="F74" si="43">F70-F72-F73</f>
-        <v>24640</v>
-      </c>
-      <c r="G74" s="106">
-        <f t="shared" ref="G74" si="44">G70-G72-G73</f>
-        <v>24640</v>
-      </c>
-      <c r="H74" s="106">
-        <f t="shared" ref="H74" si="45">H70-H72-H73</f>
-        <v>24640</v>
-      </c>
-      <c r="I74" s="106">
-        <f>I70+I71-I72-I73</f>
-        <v>36960</v>
-      </c>
-      <c r="J74" s="106">
-        <f t="shared" ref="J74:N74" si="46">J70-J72-J73</f>
-        <v>24640</v>
-      </c>
-      <c r="K74" s="106">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="L74" s="106">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="M74" s="106">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="N74" s="106">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="O74" s="106">
-        <f>O70+O71-O72-O73</f>
-        <v>36960</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="143"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="213"/>
-      <c r="F78" s="213"/>
-      <c r="G78" s="213"/>
-      <c r="H78" s="213"/>
-      <c r="I78" s="213"/>
-      <c r="J78" s="213"/>
-      <c r="K78" s="213"/>
-      <c r="L78" s="213"/>
-      <c r="M78" s="213"/>
-      <c r="N78" s="213"/>
-      <c r="O78" s="213"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="143"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="144">
-        <v>1</v>
-      </c>
-      <c r="E79" s="144">
-        <v>2</v>
-      </c>
-      <c r="F79" s="144">
-        <v>3</v>
-      </c>
-      <c r="G79" s="144">
-        <v>4</v>
-      </c>
-      <c r="H79" s="144">
-        <v>5</v>
-      </c>
-      <c r="I79" s="144">
-        <v>6</v>
-      </c>
-      <c r="J79" s="144">
-        <v>7</v>
-      </c>
-      <c r="K79" s="144">
-        <v>8</v>
-      </c>
-      <c r="L79" s="144">
-        <v>9</v>
-      </c>
-      <c r="M79" s="144">
-        <v>10</v>
-      </c>
-      <c r="N79" s="144">
-        <v>11</v>
-      </c>
-      <c r="O79" s="144">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="105">
-        <f>SUM(D80:O81)</f>
-        <v>403000</v>
-      </c>
-      <c r="D80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="E80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="F80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="G80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="H80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="I80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="J80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="K80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="L80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="M80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="N80" s="90">
-        <v>31000</v>
-      </c>
-      <c r="O80" s="90">
-        <v>31000</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
+      <c r="B81" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="C81" s="90">
+        <f t="shared" ref="C81:H81" si="45">C78*$B$10</f>
+        <v>24960</v>
+      </c>
+      <c r="D81" s="90">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="E81" s="90">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="F81" s="90">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="G81" s="90">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="H81" s="90">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
       <c r="I81" s="90">
-        <f>I80/2</f>
+        <f>(I78+I79)*$B$10</f>
+        <v>2880</v>
+      </c>
+      <c r="J81" s="90">
+        <f>J78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="K81" s="90">
+        <f>K78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="L81" s="90">
+        <f>L78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="M81" s="90">
+        <f>M78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="N81" s="90">
+        <f>N78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="O81" s="90">
+        <f>(O78+O79)*$B$10</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C82" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="106">
+        <f>D78-D80-D81</f>
+        <v>24640</v>
+      </c>
+      <c r="E82" s="106">
+        <f t="shared" ref="E82" si="46">E78-E80-E81</f>
+        <v>24640</v>
+      </c>
+      <c r="F82" s="106">
+        <f t="shared" ref="F82" si="47">F78-F80-F81</f>
+        <v>24640</v>
+      </c>
+      <c r="G82" s="106">
+        <f t="shared" ref="G82" si="48">G78-G80-G81</f>
+        <v>24640</v>
+      </c>
+      <c r="H82" s="106">
+        <f t="shared" ref="H82" si="49">H78-H80-H81</f>
+        <v>24640</v>
+      </c>
+      <c r="I82" s="106">
+        <f>I78+I79-I80-I81</f>
+        <v>36960</v>
+      </c>
+      <c r="J82" s="106">
+        <f t="shared" ref="J82:N82" si="50">J78-J80-J81</f>
+        <v>24640</v>
+      </c>
+      <c r="K82" s="106">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="L82" s="106">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="M82" s="106">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="N82" s="106">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="O82" s="106">
+        <f>O78+O79-O80-O81</f>
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="212"/>
+      <c r="F86" s="212"/>
+      <c r="G86" s="212"/>
+      <c r="H86" s="212"/>
+      <c r="I86" s="212"/>
+      <c r="J86" s="212"/>
+      <c r="K86" s="212"/>
+      <c r="L86" s="212"/>
+      <c r="M86" s="212"/>
+      <c r="N86" s="212"/>
+      <c r="O86" s="212"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="141"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="142">
+        <v>1</v>
+      </c>
+      <c r="E87" s="142">
+        <v>2</v>
+      </c>
+      <c r="F87" s="142">
+        <v>3</v>
+      </c>
+      <c r="G87" s="142">
+        <v>4</v>
+      </c>
+      <c r="H87" s="142">
+        <v>5</v>
+      </c>
+      <c r="I87" s="142">
+        <v>6</v>
+      </c>
+      <c r="J87" s="142">
+        <v>7</v>
+      </c>
+      <c r="K87" s="142">
+        <v>8</v>
+      </c>
+      <c r="L87" s="142">
+        <v>9</v>
+      </c>
+      <c r="M87" s="142">
+        <v>10</v>
+      </c>
+      <c r="N87" s="142">
+        <v>11</v>
+      </c>
+      <c r="O87" s="142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="85"/>
+      <c r="B88" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="105">
+        <f>SUM(D88:O89)</f>
+        <v>403000</v>
+      </c>
+      <c r="D88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="E88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="F88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="G88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="H88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="I88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="J88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="K88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="L88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="M88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="N88" s="90">
+        <v>31000</v>
+      </c>
+      <c r="O88" s="90">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="90">
+        <f>I88/2</f>
         <v>15500</v>
       </c>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
-      <c r="M81" s="85"/>
-      <c r="N81" s="85"/>
-      <c r="O81" s="90">
-        <f>O80/2</f>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="90">
+        <f>O88/2</f>
         <v>15500</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="102">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="102">
         <v>0.17</v>
       </c>
-      <c r="C82" s="90">
-        <f t="shared" ref="C82:H82" si="47">C80*$B$9</f>
+      <c r="C90" s="90">
+        <f t="shared" ref="C90:H90" si="51">C88*$B$9</f>
         <v>68510</v>
       </c>
-      <c r="D82" s="90">
-        <f t="shared" si="47"/>
+      <c r="D90" s="90">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="E82" s="90">
-        <f t="shared" si="47"/>
+      <c r="E90" s="90">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="F82" s="90">
-        <f t="shared" si="47"/>
+      <c r="F90" s="90">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="G82" s="90">
-        <f t="shared" si="47"/>
+      <c r="G90" s="90">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="H82" s="90">
-        <f t="shared" si="47"/>
+      <c r="H90" s="90">
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
-      <c r="I82" s="90">
-        <f>(I80+I81)*$B$9</f>
+      <c r="I90" s="90">
+        <f>(I88+I89)*$B$9</f>
         <v>7905.0000000000009</v>
       </c>
-      <c r="J82" s="90">
-        <f>J80*$B$9</f>
+      <c r="J90" s="90">
+        <f>J88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="K82" s="90">
-        <f>K80*$B$9</f>
+      <c r="K90" s="90">
+        <f>K88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="L82" s="90">
-        <f>L80*$B$9</f>
+      <c r="L90" s="90">
+        <f>L88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="M82" s="90">
-        <f>M80*$B$9</f>
+      <c r="M90" s="90">
+        <f>M88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="N82" s="90">
-        <f>N80*$B$9</f>
+      <c r="N90" s="90">
+        <f>N88*$B$9</f>
         <v>5270</v>
       </c>
-      <c r="O82" s="90">
-        <f>(O80+O81)*$B$9</f>
+      <c r="O90" s="90">
+        <f>(O88+O89)*$B$9</f>
         <v>7905.0000000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="102">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="102">
         <v>0.06</v>
       </c>
-      <c r="C83" s="90">
-        <f t="shared" ref="C83:H83" si="48">C80*$B$10</f>
+      <c r="C91" s="90">
+        <f t="shared" ref="C91:H91" si="52">C88*$B$10</f>
         <v>24180</v>
       </c>
-      <c r="D83" s="90">
-        <f t="shared" si="48"/>
+      <c r="D91" s="90">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="E83" s="90">
-        <f t="shared" si="48"/>
+      <c r="E91" s="90">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="F83" s="90">
-        <f t="shared" si="48"/>
+      <c r="F91" s="90">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="G83" s="90">
-        <f t="shared" si="48"/>
+      <c r="G91" s="90">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="H83" s="90">
-        <f t="shared" si="48"/>
+      <c r="H91" s="90">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="I83" s="90">
-        <f>(I80+I81)*$B$10</f>
+      <c r="I91" s="90">
+        <f>(I88+I89)*$B$10</f>
         <v>2790</v>
       </c>
-      <c r="J83" s="90">
-        <f>J80*$B$10</f>
+      <c r="J91" s="90">
+        <f>J88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="K83" s="90">
-        <f>K80*$B$10</f>
+      <c r="K91" s="90">
+        <f>K88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="L83" s="90">
-        <f>L80*$B$10</f>
+      <c r="L91" s="90">
+        <f>L88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="M83" s="90">
-        <f>M80*$B$10</f>
+      <c r="M91" s="90">
+        <f>M88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="N83" s="90">
-        <f>N80*$B$10</f>
+      <c r="N91" s="90">
+        <f>N88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="O83" s="90">
-        <f>(O80+O81)*$B$10</f>
+      <c r="O91" s="90">
+        <f>(O88+O89)*$B$10</f>
         <v>2790</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C84" s="75" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C92" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="106">
+        <f>D88-D90-D91</f>
+        <v>23870</v>
+      </c>
+      <c r="E92" s="106">
+        <f t="shared" ref="E92" si="53">E88-E90-E91</f>
+        <v>23870</v>
+      </c>
+      <c r="F92" s="106">
+        <f t="shared" ref="F92" si="54">F88-F90-F91</f>
+        <v>23870</v>
+      </c>
+      <c r="G92" s="106">
+        <f t="shared" ref="G92" si="55">G88-G90-G91</f>
+        <v>23870</v>
+      </c>
+      <c r="H92" s="106">
+        <f t="shared" ref="H92" si="56">H88-H90-H91</f>
+        <v>23870</v>
+      </c>
+      <c r="I92" s="106">
+        <f>I88+I89-I90-I91</f>
+        <v>35805</v>
+      </c>
+      <c r="J92" s="106">
+        <f t="shared" ref="J92:N92" si="57">J88-J90-J91</f>
+        <v>23870</v>
+      </c>
+      <c r="K92" s="106">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="L92" s="106">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="M92" s="106">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="N92" s="106">
+        <f t="shared" si="57"/>
+        <v>23870</v>
+      </c>
+      <c r="O92" s="106">
+        <f>O88+O89-O90-O91</f>
+        <v>35805</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="142"/>
+      <c r="D98" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="213" t="s">
         <v>154</v>
       </c>
-      <c r="D84" s="106">
-        <f>D80-D82-D83</f>
-        <v>23870</v>
-      </c>
-      <c r="E84" s="106">
-        <f t="shared" ref="E84" si="49">E80-E82-E83</f>
-        <v>23870</v>
-      </c>
-      <c r="F84" s="106">
-        <f t="shared" ref="F84" si="50">F80-F82-F83</f>
-        <v>23870</v>
-      </c>
-      <c r="G84" s="106">
-        <f t="shared" ref="G84" si="51">G80-G82-G83</f>
-        <v>23870</v>
-      </c>
-      <c r="H84" s="106">
-        <f t="shared" ref="H84" si="52">H80-H82-H83</f>
-        <v>23870</v>
-      </c>
-      <c r="I84" s="106">
-        <f>I80+I81-I82-I83</f>
-        <v>35805</v>
-      </c>
-      <c r="J84" s="106">
-        <f t="shared" ref="J84:N84" si="53">J80-J82-J83</f>
-        <v>23870</v>
-      </c>
-      <c r="K84" s="106">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="L84" s="106">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="M84" s="106">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="N84" s="106">
-        <f t="shared" si="53"/>
-        <v>23870</v>
-      </c>
-      <c r="O84" s="106">
-        <f>O80+O81-O82-O83</f>
-        <v>35805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C90" s="144"/>
-      <c r="D90" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="157" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="157" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C91" s="214" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="90">
+      <c r="D99" s="90">
         <f>+C26+C17+C7</f>
         <v>1560000</v>
       </c>
-      <c r="E91" s="90">
-        <f>+D91+C38+C48+C58</f>
+      <c r="E99" s="90">
+        <f>+D99+C46+C56+C66</f>
         <v>2691000</v>
       </c>
-      <c r="F91" s="90">
-        <f>+E91+C70+C80</f>
+      <c r="F99" s="90">
+        <f>+E99+C78+C88</f>
         <v>3510000</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C92" s="215"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C93" s="215"/>
-      <c r="D93" s="85" t="s">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="214"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="214"/>
+      <c r="D101" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="85" t="s">
+      <c r="E101" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="85" t="s">
+      <c r="F101" s="85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C94" s="216"/>
-      <c r="D94" s="90">
-        <f>D91/12</f>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="215"/>
+      <c r="D102" s="90">
+        <f>D99/12</f>
         <v>130000</v>
       </c>
-      <c r="E94" s="90">
-        <f>E91/12</f>
+      <c r="E102" s="90">
+        <f>E99/12</f>
         <v>224250</v>
       </c>
-      <c r="F94" s="90">
-        <f>F91/12</f>
+      <c r="F102" s="90">
+        <f>F99/12</f>
         <v>292500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D68:O68"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="C91:C94"/>
+  <mergeCells count="10">
+    <mergeCell ref="D76:O76"/>
+    <mergeCell ref="D86:O86"/>
+    <mergeCell ref="C99:C102"/>
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="D15:O15"/>
     <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="D56:O56"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D54:O54"/>
+    <mergeCell ref="D64:O64"/>
+    <mergeCell ref="D33:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15477,10 +15865,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15496,274 +15884,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="E2" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="F2" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="172" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="169">
+        <v>6</v>
+      </c>
+      <c r="I3" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="174">
+        <v>4</v>
+      </c>
+      <c r="L3" s="171">
+        <v>2</v>
+      </c>
+      <c r="M3" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="B4" s="169" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="169">
+        <v>7</v>
+      </c>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="173">
+        <v>7</v>
+      </c>
+      <c r="L4" s="174">
+        <v>5</v>
+      </c>
+      <c r="M4" s="171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="172" t="s">
+      <c r="B5" s="169" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="169" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="169">
+        <v>4</v>
+      </c>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="173">
+        <v>9</v>
+      </c>
+      <c r="L5" s="173">
+        <v>8</v>
+      </c>
+      <c r="M5" s="174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="172" t="s">
+      <c r="B6" s="169" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="169" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="169">
+        <v>7</v>
+      </c>
+      <c r="K6" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="171" t="s">
+      <c r="B7" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="171" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="171">
-        <v>6</v>
-      </c>
-      <c r="I3" s="174" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" s="174" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="176">
-        <v>4</v>
-      </c>
-      <c r="L3" s="173">
-        <v>2</v>
-      </c>
-      <c r="M3" s="173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="171" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="171" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="171">
-        <v>7</v>
-      </c>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" s="175">
-        <v>7</v>
-      </c>
-      <c r="L4" s="176">
+      <c r="C7" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="169">
         <v>5</v>
       </c>
-      <c r="M4" s="173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="171" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="171" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="171">
-        <v>4</v>
-      </c>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174" t="s">
-        <v>203</v>
-      </c>
-      <c r="K5" s="175">
-        <v>9</v>
-      </c>
-      <c r="L5" s="175">
-        <v>8</v>
-      </c>
-      <c r="M5" s="176">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="171" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="171" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="171">
-        <v>7</v>
-      </c>
-      <c r="K6" s="174" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="174" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" s="174" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="171" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="171">
-        <v>5</v>
-      </c>
-      <c r="K7" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
+      <c r="K7" s="172" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="172" t="s">
-        <v>219</v>
+      <c r="A10" s="170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="179" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="218">
+      <c r="A11" s="177" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="179">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="218">
+      <c r="A12" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="179">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="218">
+      <c r="A13" s="177" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="179">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="179" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="218">
+      <c r="A14" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="179">
         <v>91350.14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="218">
+      <c r="A15" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="179">
+        <f>64260.13</f>
+        <v>64260.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="177" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="179">
         <f>85260.13</f>
         <v>85260.13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="218">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="177" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="179">
         <v>88305.13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="179" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="218">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="179">
         <v>62773.48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="218">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="177" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="179">
         <v>60811.81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="179" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="179">
-        <f>SUM(B11,B18)</f>
-        <v>225945.32</v>
-      </c>
+      <c r="B20" s="177">
+        <f>SUM(B11:B19)</f>
+        <v>948161.35000000009</v>
+      </c>
+      <c r="C20">
+        <f>Riesgo!B20-Inversion!F32</f>
+        <v>859261.35000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gomez Marcos - Escenario de Ganancia.xlsx
+++ b/Gomez Marcos - Escenario de Ganancia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7605" tabRatio="714" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7605" tabRatio="714" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mercado Meta" sheetId="4" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Equilibrio</t>
   </si>
   <si>
-    <t>Utilidad Meta</t>
-  </si>
-  <si>
     <t>Perdida</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>Salarios Fijos</t>
+  </si>
+  <si>
+    <t>Utilidad Neta</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1503,37 +1503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1548,19 +1517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1569,9 +1525,9 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,18 +1752,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1920,7 +1870,7 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="43" xfId="6"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="40" xfId="6"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1930,6 +1880,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1950,24 +1905,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2047,19 +1984,32 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2290,13 +2240,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,8 +2266,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="101586944"/>
-        <c:axId val="101074624"/>
+        <c:axId val="113198592"/>
+        <c:axId val="112608960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2462,13 +2412,13 @@
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2376000</c:v>
+                  <c:v>2430000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3480000</c:v>
+                  <c:v>3420000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4716000</c:v>
+                  <c:v>6300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,11 +2440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101587968"/>
-        <c:axId val="101075200"/>
+        <c:axId val="113199616"/>
+        <c:axId val="112609536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101586944"/>
+        <c:axId val="113198592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2487,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101074624"/>
+        <c:crossAx val="112608960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2545,7 +2495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101074624"/>
+        <c:axId val="112608960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,12 +2546,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101586944"/>
+        <c:crossAx val="113198592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101075200"/>
+        <c:axId val="112609536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,12 +2588,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101587968"/>
+        <c:crossAx val="113199616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101587968"/>
+        <c:axId val="113199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101075200"/>
+        <c:crossAx val="112609536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2901,37 +2851,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.98</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.96</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.92</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.84</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.759999999999998</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.8</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.720000000000002</c:v>
+                  <c:v>18.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.740000000000002</c:v>
+                  <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.68</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.7</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,40 +2929,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102221312"/>
-        <c:axId val="101077504"/>
+        <c:axId val="113518080"/>
+        <c:axId val="112611840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102221312"/>
+        <c:axId val="113518080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3047,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101077504"/>
+        <c:crossAx val="112611840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101077504"/>
+        <c:axId val="112611840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3114,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102221312"/>
+        <c:crossAx val="113518080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3434,40 +3384,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23.2</c:v>
+                  <c:v>15.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.099999999999998</c:v>
+                  <c:v>17.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.3</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.3</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.099999999999998</c:v>
+                  <c:v>17.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.2</c:v>
+                  <c:v>15.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,40 +3509,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +3564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102222336"/>
-        <c:axId val="101079808"/>
+        <c:axId val="113519104"/>
+        <c:axId val="112614144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102222336"/>
+        <c:axId val="113519104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3627,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101079808"/>
+        <c:crossAx val="112614144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3685,7 +3635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101079808"/>
+        <c:axId val="112614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,7 +3694,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102222336"/>
+        <c:crossAx val="113519104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4014,40 +3964,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>31.44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.51</c:v>
+                  <c:v>24.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.58</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.369999999999997</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.474999999999998</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.51</c:v>
+                  <c:v>24.500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.369999999999997</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.23</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.195</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,40 +4089,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,11 +4144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102223360"/>
-        <c:axId val="104522880"/>
+        <c:axId val="113519616"/>
+        <c:axId val="113894528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102223360"/>
+        <c:axId val="113519616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4207,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104522880"/>
+        <c:crossAx val="113894528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4265,7 +4215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104522880"/>
+        <c:axId val="113894528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,7 +4274,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102223360"/>
+        <c:crossAx val="113519616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4508,10 +4458,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4556,90 +4506,60 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$C$20:$C$39</c:f>
+              <c:f>'Estrategia de precio'!$C$20:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>177000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>177000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>177000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>177000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>177000</c:v>
+                  <c:v>150700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,10 +4605,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4733,90 +4653,60 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$E$20:$E$39</c:f>
+              <c:f>'Estrategia de precio'!$E$20:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>185300</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185715</c:v>
+                  <c:v>178315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186150.75</c:v>
+                  <c:v>179695.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186608.28750000001</c:v>
+                  <c:v>181145.53750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187088.701875</c:v>
+                  <c:v>182667.81437500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187593.13696875001</c:v>
+                  <c:v>184266.20509375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188122.79381718751</c:v>
+                  <c:v>185944.5153484375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188678.93350804687</c:v>
+                  <c:v>187706.74111585939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189262.88018344922</c:v>
+                  <c:v>189557.07817165236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189876.0241926217</c:v>
+                  <c:v>191499.93208023498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190519.82540225278</c:v>
+                  <c:v>193539.92868424673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>191195.81667236541</c:v>
+                  <c:v>195681.92511845907</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>191905.60750598367</c:v>
+                  <c:v>197931.02137438202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192650.88788128286</c:v>
+                  <c:v>200292.57244310115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193433.432275347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>194255.10388911437</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>195117.85908357007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>196023.75203774858</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>196974.93963963602</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>197973.68662161782</c:v>
+                  <c:v>202772.2010652562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,10 +4810,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$B$20:$B$39</c:f>
+              <c:f>'Estrategia de precio'!$B$20:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4968,90 +4858,60 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estrategia de precio'!$F$20:$F$39</c:f>
+              <c:f>'Estrategia de precio'!$F$20:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36000</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84000</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96000</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132000</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144000</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156000</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168000</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>192000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>204000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>216000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>228000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>240000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,11 +4933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91814400"/>
-        <c:axId val="104525184"/>
+        <c:axId val="113516544"/>
+        <c:axId val="113896832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91814400"/>
+        <c:axId val="113516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,7 +5001,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104525184"/>
+        <c:crossAx val="113896832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5149,7 +5009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104525184"/>
+        <c:axId val="113896832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +5068,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91814400"/>
+        <c:crossAx val="113516544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8348,14 +8208,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>708675</xdr:colOff>
+      <xdr:colOff>756301</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>87721</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8365,8 +8225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15260758" y="4360333"/>
-          <a:ext cx="1026992" cy="585138"/>
+          <a:off x="15481951" y="4333875"/>
+          <a:ext cx="729600" cy="411571"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8470,15 +8330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65617</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>116416</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:colOff>2116</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>183092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8487,8 +8347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12332757" y="5113867"/>
-          <a:ext cx="811742" cy="50800"/>
+          <a:off x="12811125" y="4838700"/>
+          <a:ext cx="649816" cy="192617"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8519,16 +8379,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>24344</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757769</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113242</xdr:rowOff>
+      <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>310094</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281519</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:rowOff>27517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8537,7 +8397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13983761" y="4981575"/>
+          <a:off x="13454594" y="4980517"/>
           <a:ext cx="285750" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8642,12 +8502,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3401</cdr:x>
-      <cdr:y>0.40942</cdr:y>
+      <cdr:x>0.37815</cdr:x>
+      <cdr:y>0.31464</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.49959</cdr:x>
-      <cdr:y>0.46938</cdr:y>
+      <cdr:x>0.53764</cdr:x>
+      <cdr:y>0.3746</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8656,8 +8516,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2921601" y="2016138"/>
-          <a:ext cx="1370098" cy="295269"/>
+          <a:off x="3313312" y="1549433"/>
+          <a:ext cx="1397442" cy="295269"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8684,12 +8544,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.69917</cdr:x>
-      <cdr:y>0.33269</cdr:y>
+      <cdr:x>0.61068</cdr:x>
+      <cdr:y>0.25954</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.81394</cdr:x>
-      <cdr:y>0.41436</cdr:y>
+      <cdr:x>0.83648</cdr:x>
+      <cdr:y>0.40384</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8697,13 +8557,13 @@
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6124576" y="1638307"/>
-          <a:ext cx="1005397" cy="402159"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="21244780">
+          <a:off x="5350706" y="1278065"/>
+          <a:ext cx="1978492" cy="710633"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
           <a:avLst>
-            <a:gd name="adj" fmla="val 99999"/>
+            <a:gd name="adj" fmla="val 100000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -9000,7 +8860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9011,7 +8871,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9024,74 +8884,74 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="168" t="s">
+      <c r="A4" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="D4" s="164" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="168" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="22">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C5" s="22">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="D5" s="22">
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="73">
         <f>E16*B5</f>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
       <c r="C6" s="73">
         <f>E16*C5</f>
-        <v>3480000</v>
+        <v>3420000</v>
       </c>
       <c r="D6" s="73">
         <f>E16*D5</f>
-        <v>4716000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D11" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -9105,7 +8965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:G32"/>
     </sheetView>
   </sheetViews>
@@ -9121,16 +8981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="182"/>
-      <c r="E1" s="180" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="182"/>
+      <c r="A1" s="179" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="181"/>
+      <c r="E1" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="180"/>
+      <c r="G1" s="181"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9152,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9240,7 +9100,7 @@
         <v>1300</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="9">
@@ -9280,7 +9140,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="13">
         <f>G7*12</f>
@@ -9289,7 +9149,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -9312,7 +9172,7 @@
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="29">
         <f>C10*12</f>
@@ -9323,18 +9183,18 @@
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="182"/>
-      <c r="E13" s="180" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="181"/>
-      <c r="G13" s="182"/>
+      <c r="A13" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="E13" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="180"/>
+      <c r="G13" s="181"/>
       <c r="H13" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9354,11 +9214,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="48">
         <f>('Mercado Meta'!C5-'Mercado Meta'!B5)/'Mercado Meta'!B5</f>
-        <v>0.46464646464646464</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9379,7 +9239,7 @@
       </c>
       <c r="G15" s="9">
         <f>G19*H3</f>
-        <v>7323.2323232323233</v>
+        <v>7037.0370370370374</v>
       </c>
       <c r="I15" s="42"/>
     </row>
@@ -9401,7 +9261,7 @@
       </c>
       <c r="G16" s="9">
         <f>G19*H4</f>
-        <v>2196.969696969697</v>
+        <v>2111.1111111111113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -9422,7 +9282,7 @@
       </c>
       <c r="G17" s="9">
         <f>G19*H5</f>
-        <v>2636.3636363636365</v>
+        <v>2533.3333333333335</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="28"/>
@@ -9438,7 +9298,7 @@
         <v>1300</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="9">
@@ -9464,7 +9324,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="13">
         <f>(G7*H14)+G7</f>
-        <v>38520.202020202021</v>
+        <v>37014.814814814818</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9479,16 +9339,16 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="13">
         <f>G19*12</f>
-        <v>462242.42424242425</v>
+        <v>444177.77777777781</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -9511,7 +9371,7 @@
     <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="29">
         <f>C22*12</f>
@@ -9520,18 +9380,18 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="182"/>
-      <c r="E25" s="180" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="181"/>
-      <c r="G25" s="182"/>
+      <c r="A25" s="179" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="E25" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="180"/>
+      <c r="G25" s="181"/>
       <c r="H25" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9551,11 +9411,11 @@
         <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="48">
         <f>('Mercado Meta'!D5-'Mercado Meta'!C5)/'Mercado Meta'!C5</f>
-        <v>0.35517241379310344</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -9576,7 +9436,7 @@
       </c>
       <c r="G27" s="9">
         <f>G31*H3</f>
-        <v>9924.242424242424</v>
+        <v>12962.962962962964</v>
       </c>
       <c r="I27" s="42"/>
     </row>
@@ -9598,7 +9458,7 @@
       </c>
       <c r="G28" s="9">
         <f>G31*H4</f>
-        <v>2977.2727272727275</v>
+        <v>3888.8888888888896</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,7 +9479,7 @@
       </c>
       <c r="G29" s="9">
         <f>G31*H5</f>
-        <v>3572.727272727273</v>
+        <v>4666.6666666666679</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="28"/>
@@ -9635,7 +9495,7 @@
         <v>1300</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="9">
@@ -9661,7 +9521,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="13">
         <f>(G19*H26)+G19</f>
-        <v>52201.515151515152</v>
+        <v>68185.185185185197</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9676,16 +9536,16 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="13">
         <f>G31*12</f>
-        <v>626418.18181818188</v>
+        <v>818222.22222222236</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>4</v>
@@ -9708,7 +9568,7 @@
     <row r="35" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
       <c r="B35" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="29">
         <f>C34*12</f>
@@ -9733,8 +9593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9754,109 +9614,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="183"/>
+      <c r="E1" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="183" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="184"/>
-      <c r="G1" s="183" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="184"/>
+      <c r="H1" s="183"/>
       <c r="I1" s="76"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="134" t="s">
+      <c r="L1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="131" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
-        <v>173</v>
+      <c r="B2" s="125" t="s">
+        <v>172</v>
       </c>
       <c r="C2" s="77">
         <f>'Mercado Meta'!B5/12</f>
-        <v>16.5</v>
+        <v>11.25</v>
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="77">
         <f>'Mercado Meta'!C5/12</f>
-        <v>24.166666666666668</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="F2" s="78"/>
       <c r="G2" s="77">
         <f>'Mercado Meta'!D5/12</f>
-        <v>32.75</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="79"/>
-      <c r="J2" s="137" t="s">
-        <v>218</v>
+      <c r="J2" s="133" t="s">
+        <v>217</v>
       </c>
       <c r="K2" s="81">
         <f>C2</f>
-        <v>16.5</v>
+        <v>11.25</v>
       </c>
       <c r="L2" s="81">
         <f>E2</f>
-        <v>24.166666666666668</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="M2" s="78">
         <f>G2</f>
-        <v>32.75</v>
+        <v>29.166666666666668</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="126" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="82">
         <f>C2</f>
-        <v>16.5</v>
+        <v>11.25</v>
       </c>
       <c r="D3" s="83">
         <f>C3*$L$11</f>
-        <v>198000</v>
+        <v>202500</v>
       </c>
       <c r="E3" s="82">
         <f>E2</f>
-        <v>24.166666666666668</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="F3" s="83">
         <f>E3*$L$11</f>
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="G3" s="82">
         <f>G2</f>
-        <v>32.75</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="H3" s="83">
         <f>G3*$L$11</f>
-        <v>393000</v>
+        <v>525000</v>
       </c>
       <c r="I3" s="84"/>
-      <c r="J3" s="136" t="s">
-        <v>32</v>
+      <c r="J3" s="132" t="s">
+        <v>31</v>
       </c>
       <c r="K3" s="85"/>
       <c r="L3" s="86">
         <f>(L2-K2)/K2</f>
-        <v>0.4646464646464647</v>
+        <v>0.40740740740740744</v>
       </c>
       <c r="M3" s="87">
         <f>(M2-L2)/L2</f>
-        <v>0.35517241379310338</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="130"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
       <c r="E4" s="88"/>
@@ -9864,37 +9724,37 @@
       <c r="G4" s="88"/>
       <c r="H4" s="89"/>
       <c r="I4" s="84"/>
-      <c r="J4" s="136" t="s">
-        <v>217</v>
+      <c r="J4" s="132" t="s">
+        <v>216</v>
       </c>
       <c r="K4" s="90">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L4" s="90">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M4" s="90">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="127" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="92"/>
       <c r="D5" s="93">
         <f>D3+D4</f>
-        <v>198000</v>
+        <v>202500</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="93">
         <f>F3+F4</f>
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="93">
         <f>H3+H4</f>
-        <v>393000</v>
+        <v>525000</v>
       </c>
       <c r="I5" s="94"/>
       <c r="J5" s="95"/>
@@ -9904,73 +9764,73 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="185" t="s">
+      <c r="D7" s="185"/>
+      <c r="E7" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="186"/>
-      <c r="G7" s="185" t="s">
+      <c r="F7" s="185"/>
+      <c r="G7" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="186"/>
+      <c r="H7" s="185"/>
       <c r="I7" s="76"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="129" t="s">
-        <v>174</v>
+      <c r="B8" s="125" t="s">
+        <v>173</v>
       </c>
       <c r="C8" s="80">
         <f>'Mercado Meta'!B5</f>
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="98">
         <f>(C8*L3)+C8</f>
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="F8" s="97"/>
       <c r="G8" s="98">
         <f>(E8*M3)+E8</f>
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="H8" s="97"/>
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="82">
         <f>C8</f>
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="D9" s="100">
         <f>C9*$K$4</f>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
       <c r="E9" s="82">
         <f>E8</f>
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="F9" s="100">
         <f>E9*$L$4</f>
-        <v>3480000</v>
+        <v>3420000</v>
       </c>
       <c r="G9" s="82">
         <f>G8</f>
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="H9" s="100">
         <f>G9*$M$4</f>
-        <v>4716000</v>
+        <v>6300000</v>
       </c>
       <c r="I9" s="84"/>
     </row>
     <row r="10" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="130"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="88"/>
       <c r="D10" s="101"/>
       <c r="E10" s="88"/>
@@ -9978,38 +9838,38 @@
       <c r="G10" s="88"/>
       <c r="H10" s="101"/>
       <c r="I10" s="84"/>
-      <c r="K10" s="138" t="s">
+      <c r="K10" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="140" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="128" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="93">
         <f>D9+D10</f>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="93">
         <f>F9+F10</f>
-        <v>3480000</v>
+        <v>3420000</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="93">
         <f>H9+H10</f>
-        <v>4716000</v>
+        <v>6300000</v>
       </c>
       <c r="I11" s="94"/>
-      <c r="K11" s="139" t="s">
-        <v>171</v>
+      <c r="K11" s="135" t="s">
+        <v>170</v>
       </c>
       <c r="L11" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -10021,25 +9881,25 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="75">
         <f>'Mercado Meta'!B5</f>
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
+      <c r="B18" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="102">
@@ -10084,47 +9944,47 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="D20" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="E20" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="F20" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="G20" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="142" t="s">
+      <c r="H20" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="142" t="s">
+      <c r="I20" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="142" t="s">
+      <c r="J20" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="142" t="s">
+      <c r="K20" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="142" t="s">
+      <c r="L20" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="142" t="s">
+      <c r="M20" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="142"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="103">
         <f>$B$17*B19</f>
@@ -10132,56 +9992,56 @@
       </c>
       <c r="C21" s="103">
         <f t="shared" ref="C21:M21" si="0">$B$17*C19</f>
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
       <c r="D21" s="103">
         <f t="shared" si="0"/>
-        <v>3.96</v>
+        <v>2.7</v>
       </c>
       <c r="E21" s="103">
         <f t="shared" si="0"/>
-        <v>7.92</v>
+        <v>5.4</v>
       </c>
       <c r="F21" s="103">
         <f t="shared" si="0"/>
-        <v>9.9</v>
+        <v>6.75</v>
       </c>
       <c r="G21" s="103">
         <f t="shared" si="0"/>
-        <v>15.84</v>
+        <v>10.8</v>
       </c>
       <c r="H21" s="103">
         <f t="shared" si="0"/>
-        <v>23.759999999999998</v>
+        <v>16.2</v>
       </c>
       <c r="I21" s="103">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>13.5</v>
       </c>
       <c r="J21" s="103">
         <f t="shared" si="0"/>
-        <v>27.720000000000002</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="K21" s="103">
         <f t="shared" si="0"/>
-        <v>25.740000000000002</v>
+        <v>17.55</v>
       </c>
       <c r="L21" s="103">
         <f t="shared" si="0"/>
-        <v>31.68</v>
+        <v>21.6</v>
       </c>
       <c r="M21" s="103">
         <f t="shared" si="0"/>
-        <v>29.7</v>
+        <v>20.25</v>
       </c>
       <c r="N21" s="103">
         <f>SUM(B21:M21)</f>
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="99">
         <f>IFERROR(B21*$L$11,0)</f>
@@ -10189,113 +10049,125 @@
       </c>
       <c r="C22" s="99">
         <f t="shared" ref="C22:N22" si="1">IFERROR(C21*$L$11,0)</f>
-        <v>23760</v>
+        <v>24300</v>
       </c>
       <c r="D22" s="99">
         <f t="shared" si="1"/>
-        <v>47520</v>
+        <v>48600</v>
       </c>
       <c r="E22" s="99">
         <f t="shared" si="1"/>
-        <v>95040</v>
+        <v>97200</v>
       </c>
       <c r="F22" s="99">
         <f t="shared" si="1"/>
-        <v>118800</v>
+        <v>121500</v>
       </c>
       <c r="G22" s="99">
         <f t="shared" si="1"/>
-        <v>190080</v>
+        <v>194400</v>
       </c>
       <c r="H22" s="99">
         <f t="shared" si="1"/>
-        <v>285120</v>
+        <v>291600</v>
       </c>
       <c r="I22" s="99">
         <f t="shared" si="1"/>
-        <v>237600</v>
+        <v>243000</v>
       </c>
       <c r="J22" s="99">
         <f t="shared" si="1"/>
-        <v>332640</v>
+        <v>340200.00000000006</v>
       </c>
       <c r="K22" s="99">
         <f t="shared" si="1"/>
-        <v>308880</v>
+        <v>315900</v>
       </c>
       <c r="L22" s="99">
         <f t="shared" si="1"/>
-        <v>380160</v>
+        <v>388800</v>
       </c>
       <c r="M22" s="99">
         <f t="shared" si="1"/>
-        <v>356400</v>
+        <v>364500</v>
       </c>
       <c r="N22" s="99">
         <f t="shared" si="1"/>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="74">
-        <v>15</v>
+        <f>135/12</f>
+        <v>11.25</v>
       </c>
       <c r="C23" s="74">
-        <v>15</v>
+        <f t="shared" ref="C23:M23" si="2">135/12</f>
+        <v>11.25</v>
       </c>
       <c r="D23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="E23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="F23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="G23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="H23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="I23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="J23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="K23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="L23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
       <c r="M23" s="74">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" s="104">
         <f>E8</f>
-        <v>290</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
+      <c r="B29" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="102">
@@ -10340,218 +10212,230 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="D31" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="142" t="s">
+      <c r="E31" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="142" t="s">
+      <c r="F31" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="142" t="s">
+      <c r="G31" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="142" t="s">
+      <c r="H31" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="142" t="s">
+      <c r="I31" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="142" t="s">
+      <c r="J31" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="142" t="s">
+      <c r="K31" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="142" t="s">
+      <c r="L31" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="142" t="s">
+      <c r="M31" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="142"/>
+      <c r="N31" s="138"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="103">
         <f>$B$28*B30</f>
-        <v>23.2</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="C32" s="103">
-        <f t="shared" ref="C32:M32" si="2">$B$28*C30</f>
-        <v>26.099999999999998</v>
+        <f t="shared" ref="C32:M32" si="3">$B$28*C30</f>
+        <v>17.099999999999998</v>
       </c>
       <c r="D32" s="103">
-        <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>11.4</v>
       </c>
       <c r="E32" s="103">
-        <f t="shared" si="2"/>
-        <v>20.3</v>
+        <f t="shared" si="3"/>
+        <v>13.3</v>
       </c>
       <c r="F32" s="103">
-        <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>11.4</v>
       </c>
       <c r="G32" s="103">
-        <f t="shared" si="2"/>
-        <v>20.3</v>
+        <f t="shared" si="3"/>
+        <v>13.3</v>
       </c>
       <c r="H32" s="103">
-        <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>11.4</v>
       </c>
       <c r="I32" s="103">
-        <f t="shared" si="2"/>
-        <v>26.099999999999998</v>
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
       </c>
       <c r="J32" s="103">
-        <f t="shared" si="2"/>
-        <v>23.2</v>
+        <f t="shared" si="3"/>
+        <v>15.200000000000001</v>
       </c>
       <c r="K32" s="103">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="L32" s="103">
-        <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <f t="shared" si="3"/>
+        <v>22.8</v>
       </c>
       <c r="M32" s="103">
-        <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <f t="shared" si="3"/>
+        <v>22.8</v>
       </c>
       <c r="N32" s="103">
         <f>SUM(B32:M32)</f>
-        <v>289.99999999999994</v>
+        <v>190.00000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="99">
-        <f t="shared" ref="B33:C33" si="3">IFERROR(B32*$L$11,0)</f>
-        <v>278400</v>
+        <f t="shared" ref="B33:C33" si="4">IFERROR(B32*$L$11,0)</f>
+        <v>273600</v>
       </c>
       <c r="C33" s="99">
-        <f t="shared" si="3"/>
-        <v>313200</v>
+        <f t="shared" si="4"/>
+        <v>307799.99999999994</v>
       </c>
       <c r="D33" s="99">
-        <f t="shared" ref="D33" si="4">IFERROR(D32*$L$11,0)</f>
-        <v>208799.99999999997</v>
+        <f t="shared" ref="D33" si="5">IFERROR(D32*$L$11,0)</f>
+        <v>205200</v>
       </c>
       <c r="E33" s="99">
-        <f t="shared" ref="E33" si="5">IFERROR(E32*$L$11,0)</f>
-        <v>243600</v>
+        <f t="shared" ref="E33" si="6">IFERROR(E32*$L$11,0)</f>
+        <v>239400</v>
       </c>
       <c r="F33" s="99">
-        <f t="shared" ref="F33" si="6">IFERROR(F32*$L$11,0)</f>
-        <v>208799.99999999997</v>
+        <f t="shared" ref="F33" si="7">IFERROR(F32*$L$11,0)</f>
+        <v>205200</v>
       </c>
       <c r="G33" s="99">
-        <f t="shared" ref="G33" si="7">IFERROR(G32*$L$11,0)</f>
-        <v>243600</v>
+        <f t="shared" ref="G33" si="8">IFERROR(G32*$L$11,0)</f>
+        <v>239400</v>
       </c>
       <c r="H33" s="99">
-        <f t="shared" ref="H33" si="8">IFERROR(H32*$L$11,0)</f>
-        <v>208799.99999999997</v>
+        <f t="shared" ref="H33" si="9">IFERROR(H32*$L$11,0)</f>
+        <v>205200</v>
       </c>
       <c r="I33" s="99">
-        <f t="shared" ref="I33" si="9">IFERROR(I32*$L$11,0)</f>
-        <v>313200</v>
+        <f t="shared" ref="I33" si="10">IFERROR(I32*$L$11,0)</f>
+        <v>307799.99999999994</v>
       </c>
       <c r="J33" s="99">
-        <f t="shared" ref="J33" si="10">IFERROR(J32*$L$11,0)</f>
-        <v>278400</v>
+        <f t="shared" ref="J33" si="11">IFERROR(J32*$L$11,0)</f>
+        <v>273600</v>
       </c>
       <c r="K33" s="99">
-        <f t="shared" ref="K33" si="11">IFERROR(K32*$L$11,0)</f>
-        <v>348000</v>
+        <f t="shared" ref="K33" si="12">IFERROR(K32*$L$11,0)</f>
+        <v>342000</v>
       </c>
       <c r="L33" s="99">
-        <f t="shared" ref="L33" si="12">IFERROR(L32*$L$11,0)</f>
-        <v>417599.99999999994</v>
+        <f t="shared" ref="L33" si="13">IFERROR(L32*$L$11,0)</f>
+        <v>410400</v>
       </c>
       <c r="M33" s="99">
-        <f t="shared" ref="M33" si="13">IFERROR(M32*$L$11,0)</f>
-        <v>417599.99999999994</v>
+        <f t="shared" ref="M33" si="14">IFERROR(M32*$L$11,0)</f>
+        <v>410400</v>
       </c>
       <c r="N33" s="99">
-        <f t="shared" ref="N33" si="14">IFERROR(N32*$L$11,0)</f>
-        <v>3479999.9999999995</v>
+        <f t="shared" ref="N33" si="15">IFERROR(N32*$L$11,0)</f>
+        <v>3420000.0000000005</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="74">
-        <v>15</v>
+        <f>190/12</f>
+        <v>15.833333333333334</v>
       </c>
       <c r="C34" s="74">
-        <v>15</v>
+        <f t="shared" ref="C34:M34" si="16">190/12</f>
+        <v>15.833333333333334</v>
       </c>
       <c r="D34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="E34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="F34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="G34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="H34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="I34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="J34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="K34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="L34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
       <c r="M34" s="74">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>15.833333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="104">
         <f>G9</f>
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
+      <c r="B41" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="102">
@@ -10596,194 +10480,206 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="142" t="s">
+      <c r="B43" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="D43" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="142" t="s">
+      <c r="E43" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="F43" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="142" t="s">
+      <c r="G43" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="142" t="s">
+      <c r="H43" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="I43" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="142" t="s">
+      <c r="J43" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="142" t="s">
+      <c r="K43" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="142" t="s">
+      <c r="L43" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="L43" s="142" t="s">
+      <c r="M43" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="M43" s="142" t="s">
-        <v>77</v>
-      </c>
-      <c r="N43" s="142"/>
+      <c r="N43" s="138"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="103">
         <f>$B$40*B42</f>
-        <v>31.44</v>
+        <v>28</v>
       </c>
       <c r="C44" s="103">
-        <f t="shared" ref="C44:M44" si="15">$B$40*C42</f>
-        <v>27.51</v>
+        <f t="shared" ref="C44:M44" si="17">$B$40*C42</f>
+        <v>24.500000000000004</v>
       </c>
       <c r="D44" s="103">
-        <f t="shared" si="15"/>
-        <v>23.58</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="E44" s="103">
-        <f t="shared" si="15"/>
-        <v>35.369999999999997</v>
+        <f t="shared" si="17"/>
+        <v>31.5</v>
       </c>
       <c r="F44" s="103">
-        <f t="shared" si="15"/>
-        <v>31.44</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="G44" s="103">
-        <f t="shared" si="15"/>
-        <v>29.474999999999998</v>
+        <f t="shared" si="17"/>
+        <v>26.25</v>
       </c>
       <c r="H44" s="103">
-        <f t="shared" si="15"/>
-        <v>27.51</v>
+        <f t="shared" si="17"/>
+        <v>24.500000000000004</v>
       </c>
       <c r="I44" s="103">
-        <f t="shared" si="15"/>
-        <v>31.44</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="J44" s="103">
-        <f t="shared" si="15"/>
-        <v>31.44</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="K44" s="103">
-        <f t="shared" si="15"/>
-        <v>35.369999999999997</v>
+        <f t="shared" si="17"/>
+        <v>31.5</v>
       </c>
       <c r="L44" s="103">
-        <f t="shared" si="15"/>
-        <v>43.23</v>
+        <f t="shared" si="17"/>
+        <v>38.5</v>
       </c>
       <c r="M44" s="103">
-        <f t="shared" si="15"/>
-        <v>45.195</v>
+        <f t="shared" si="17"/>
+        <v>40.25</v>
       </c>
       <c r="N44" s="103">
         <f>SUM(B44:M44)</f>
-        <v>393</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="99">
-        <f t="shared" ref="B45:N45" si="16">IFERROR(B44*$L$11,0)</f>
-        <v>377280</v>
+        <f t="shared" ref="B45:N45" si="18">IFERROR(B44*$L$11,0)</f>
+        <v>504000</v>
       </c>
       <c r="C45" s="99">
-        <f t="shared" si="16"/>
-        <v>330120</v>
+        <f t="shared" si="18"/>
+        <v>441000.00000000006</v>
       </c>
       <c r="D45" s="99">
-        <f t="shared" si="16"/>
-        <v>282960</v>
+        <f t="shared" si="18"/>
+        <v>378000</v>
       </c>
       <c r="E45" s="99">
-        <f t="shared" si="16"/>
-        <v>424439.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>567000</v>
       </c>
       <c r="F45" s="99">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>504000</v>
       </c>
       <c r="G45" s="99">
-        <f t="shared" si="16"/>
-        <v>353700</v>
+        <f t="shared" si="18"/>
+        <v>472500</v>
       </c>
       <c r="H45" s="99">
-        <f t="shared" si="16"/>
-        <v>330120</v>
+        <f t="shared" si="18"/>
+        <v>441000.00000000006</v>
       </c>
       <c r="I45" s="99">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>504000</v>
       </c>
       <c r="J45" s="99">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>504000</v>
       </c>
       <c r="K45" s="99">
-        <f t="shared" si="16"/>
-        <v>424439.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>567000</v>
       </c>
       <c r="L45" s="99">
-        <f t="shared" si="16"/>
-        <v>518759.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>693000</v>
       </c>
       <c r="M45" s="99">
-        <f t="shared" si="16"/>
-        <v>542340</v>
+        <f t="shared" si="18"/>
+        <v>724500</v>
       </c>
       <c r="N45" s="99">
-        <f t="shared" si="16"/>
-        <v>4716000</v>
+        <f t="shared" si="18"/>
+        <v>6300000</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="74">
-        <v>15</v>
+        <f>350/12</f>
+        <v>29.166666666666668</v>
       </c>
       <c r="C46" s="74">
-        <v>15</v>
+        <f t="shared" ref="C46:M46" si="19">350/12</f>
+        <v>29.166666666666668</v>
       </c>
       <c r="D46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="E46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="F46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="G46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="H46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="I46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="J46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="K46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="L46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="M46" s="74">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>29.166666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -10803,14 +10699,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F39"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -10821,12 +10718,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="186" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10840,155 +10737,155 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="194"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="117">
         <v>2600</v>
       </c>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="194"/>
-      <c r="C5" s="119" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="121">
+      <c r="E5" s="117">
         <v>11900</v>
       </c>
       <c r="K5" s="107"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="194"/>
-      <c r="C6" s="119" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="117">
         <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="194"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="117">
         <v>1400</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="109"/>
+      <c r="L7" s="108"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="194"/>
-      <c r="C8" s="119" t="s">
+      <c r="B8" s="187"/>
+      <c r="C8" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="117">
         <v>600</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="35">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
-      <c r="C9" s="119" t="s">
+      <c r="B9" s="187"/>
+      <c r="C9" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="121">
+      <c r="E9" s="117">
         <v>2300</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="195"/>
-      <c r="C10" s="122" t="s">
+      <c r="B10" s="188"/>
+      <c r="C10" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="120">
         <v>130000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="117">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="194"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="187"/>
+      <c r="C12" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="117">
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="226"/>
-      <c r="C13" s="122" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="123" t="s">
+      <c r="B13" s="187"/>
+      <c r="C13" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="120">
         <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="225"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="188"/>
+      <c r="C14" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="123">
         <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="128">
+      <c r="D15" s="190"/>
+      <c r="E15" s="124">
         <f>SUM(E4:E14)</f>
         <v>177000</v>
       </c>
@@ -11012,13 +10909,13 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>25</v>
@@ -11028,457 +10925,349 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="190" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="110">
+      <c r="A20" s="220" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="109">
         <v>1</v>
       </c>
-      <c r="C20" s="111">
-        <f>$E$15</f>
+      <c r="C20" s="110">
+        <f>SUM(E4:E10)</f>
+        <v>150700</v>
+      </c>
+      <c r="D20" s="110">
+        <f>SUM(E11:E14)</f>
+        <v>26300</v>
+      </c>
+      <c r="E20" s="110">
+        <f>SUM(C20:D20)</f>
         <v>177000</v>
       </c>
-      <c r="D20" s="111">
-        <v>8300</v>
-      </c>
-      <c r="E20" s="111">
-        <f>SUM(C20:D20)</f>
-        <v>185300</v>
-      </c>
-      <c r="F20" s="112">
-        <f>B20*$H$8</f>
-        <v>12000</v>
+      <c r="F20" s="111">
+        <f t="shared" ref="F20:F34" si="0">B20*$H$8</f>
+        <v>18000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="110">
+      <c r="A21" s="221"/>
+      <c r="B21" s="109">
         <v>2</v>
       </c>
-      <c r="C21" s="111">
-        <f t="shared" ref="C21:C39" si="0">$E$15</f>
-        <v>177000</v>
-      </c>
-      <c r="D21" s="111">
+      <c r="C21" s="110">
+        <f>C20</f>
+        <v>150700</v>
+      </c>
+      <c r="D21" s="110">
         <f t="shared" ref="D21:D31" si="1">D20*$E$18</f>
-        <v>8715</v>
-      </c>
-      <c r="E21" s="111">
+        <v>27615</v>
+      </c>
+      <c r="E21" s="110">
         <f t="shared" ref="E21:E31" si="2">SUM(C21:D21)</f>
-        <v>185715</v>
-      </c>
-      <c r="F21" s="112">
-        <f>B21*$H$8</f>
-        <v>24000</v>
+        <v>178315</v>
+      </c>
+      <c r="F21" s="111">
+        <f t="shared" si="0"/>
+        <v>36000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="110">
+      <c r="A22" s="221"/>
+      <c r="B22" s="109">
         <v>3</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="110">
+        <f t="shared" ref="C22:C34" si="3">C21</f>
+        <v>150700</v>
+      </c>
+      <c r="D22" s="110">
+        <f t="shared" si="1"/>
+        <v>28995.75</v>
+      </c>
+      <c r="E22" s="110">
+        <f t="shared" si="2"/>
+        <v>179695.75</v>
+      </c>
+      <c r="F22" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D22" s="111">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="221"/>
+      <c r="B23" s="109">
+        <v>4</v>
+      </c>
+      <c r="C23" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D23" s="110">
         <f t="shared" si="1"/>
-        <v>9150.75</v>
-      </c>
-      <c r="E22" s="111">
+        <v>30445.537500000002</v>
+      </c>
+      <c r="E23" s="110">
         <f t="shared" si="2"/>
-        <v>186150.75</v>
-      </c>
-      <c r="F22" s="112">
-        <f>B22*$H$8</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="191"/>
-      <c r="B23" s="110">
-        <v>4</v>
-      </c>
-      <c r="C23" s="111">
+        <v>181145.53750000001</v>
+      </c>
+      <c r="F23" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D23" s="111">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="221"/>
+      <c r="B24" s="109">
+        <v>5</v>
+      </c>
+      <c r="C24" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D24" s="110">
         <f t="shared" si="1"/>
-        <v>9608.2875000000004</v>
-      </c>
-      <c r="E23" s="111">
+        <v>31967.814375000005</v>
+      </c>
+      <c r="E24" s="110">
         <f t="shared" si="2"/>
-        <v>186608.28750000001</v>
-      </c>
-      <c r="F23" s="112">
-        <f>B23*$H$8</f>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
-      <c r="B24" s="110">
-        <v>5</v>
-      </c>
-      <c r="C24" s="111">
+        <v>182667.81437500002</v>
+      </c>
+      <c r="F24" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D24" s="111">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="221"/>
+      <c r="B25" s="109">
+        <v>6</v>
+      </c>
+      <c r="C25" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D25" s="110">
         <f t="shared" si="1"/>
-        <v>10088.701875000001</v>
-      </c>
-      <c r="E24" s="111">
+        <v>33566.20509375001</v>
+      </c>
+      <c r="E25" s="110">
         <f t="shared" si="2"/>
-        <v>187088.701875</v>
-      </c>
-      <c r="F24" s="112">
-        <f>B24*$H$8</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="110">
-        <v>6</v>
-      </c>
-      <c r="C25" s="111">
+        <v>184266.20509375</v>
+      </c>
+      <c r="F25" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D25" s="111">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="221"/>
+      <c r="B26" s="109">
+        <v>7</v>
+      </c>
+      <c r="C26" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D26" s="110">
         <f t="shared" si="1"/>
-        <v>10593.136968750001</v>
-      </c>
-      <c r="E25" s="111">
+        <v>35244.515348437511</v>
+      </c>
+      <c r="E26" s="110">
         <f t="shared" si="2"/>
-        <v>187593.13696875001</v>
-      </c>
-      <c r="F25" s="112">
-        <f>B25*$H$8</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="110">
-        <v>7</v>
-      </c>
-      <c r="C26" s="111">
+        <v>185944.5153484375</v>
+      </c>
+      <c r="F26" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D26" s="111">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="221"/>
+      <c r="B27" s="109">
+        <v>8</v>
+      </c>
+      <c r="C27" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D27" s="110">
         <f t="shared" si="1"/>
-        <v>11122.793817187501</v>
-      </c>
-      <c r="E26" s="111">
+        <v>37006.74111585939</v>
+      </c>
+      <c r="E27" s="110">
         <f t="shared" si="2"/>
-        <v>188122.79381718751</v>
-      </c>
-      <c r="F26" s="112">
-        <f>B26*$H$8</f>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="110">
-        <v>8</v>
-      </c>
-      <c r="C27" s="111">
+        <v>187706.74111585939</v>
+      </c>
+      <c r="F27" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D27" s="111">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="221"/>
+      <c r="B28" s="109">
+        <v>9</v>
+      </c>
+      <c r="C28" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D28" s="110">
         <f t="shared" si="1"/>
-        <v>11678.933508046877</v>
-      </c>
-      <c r="E27" s="111">
+        <v>38857.078171652363</v>
+      </c>
+      <c r="E28" s="110">
         <f t="shared" si="2"/>
-        <v>188678.93350804687</v>
-      </c>
-      <c r="F27" s="112">
-        <f>B27*$H$8</f>
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
-      <c r="B28" s="110">
-        <v>9</v>
-      </c>
-      <c r="C28" s="111">
+        <v>189557.07817165236</v>
+      </c>
+      <c r="F28" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D28" s="111">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="222"/>
+      <c r="B29" s="109">
+        <v>10</v>
+      </c>
+      <c r="C29" s="110">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D29" s="110">
         <f t="shared" si="1"/>
-        <v>12262.880183449222</v>
-      </c>
-      <c r="E28" s="111">
+        <v>40799.932080234983</v>
+      </c>
+      <c r="E29" s="110">
         <f t="shared" si="2"/>
-        <v>189262.88018344922</v>
-      </c>
-      <c r="F28" s="112">
-        <f>B28*$H$8</f>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
-      <c r="B29" s="110">
-        <v>10</v>
-      </c>
-      <c r="C29" s="111">
+        <v>191499.93208023498</v>
+      </c>
+      <c r="F29" s="111">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D29" s="111">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="176">
+        <v>11</v>
+      </c>
+      <c r="C30" s="177">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D30" s="177">
         <f t="shared" si="1"/>
-        <v>12876.024192621684</v>
-      </c>
-      <c r="E29" s="111">
+        <v>42839.928684246734</v>
+      </c>
+      <c r="E30" s="177">
         <f t="shared" si="2"/>
-        <v>189876.0241926217</v>
-      </c>
-      <c r="F29" s="112">
-        <f>B29*$H$8</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
-      <c r="B30" s="110">
-        <v>11</v>
-      </c>
-      <c r="C30" s="111">
+        <v>193539.92868424673</v>
+      </c>
+      <c r="F30" s="178">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D30" s="111">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="214" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="215">
+        <v>12</v>
+      </c>
+      <c r="C31" s="113">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D31" s="216">
         <f t="shared" si="1"/>
-        <v>13519.825402252769</v>
-      </c>
-      <c r="E30" s="111">
+        <v>44981.925118459076</v>
+      </c>
+      <c r="E31" s="216">
         <f t="shared" si="2"/>
-        <v>190519.82540225278</v>
-      </c>
-      <c r="F30" s="112">
-        <f>B30*$H$8</f>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="191"/>
-      <c r="B31" s="113">
-        <v>12</v>
-      </c>
-      <c r="C31" s="114">
+        <v>195681.92511845907</v>
+      </c>
+      <c r="F31" s="217">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D31" s="114">
-        <f t="shared" si="1"/>
-        <v>14195.816672365409</v>
-      </c>
-      <c r="E31" s="114">
-        <f t="shared" si="2"/>
-        <v>191195.81667236541</v>
-      </c>
-      <c r="F31" s="115">
-        <f>B31*$H$8</f>
-        <v>144000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="191"/>
-      <c r="B32" s="110">
+      <c r="A32" s="219"/>
+      <c r="B32" s="112">
         <v>13</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="113">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D32" s="113">
+        <f t="shared" ref="D32:D34" si="4">D31*$E$18</f>
+        <v>47231.021374382035</v>
+      </c>
+      <c r="E32" s="113">
+        <f t="shared" ref="E32:E34" si="5">SUM(C32:D32)</f>
+        <v>197931.02137438202</v>
+      </c>
+      <c r="F32" s="114">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D32" s="111">
-        <f t="shared" ref="D32:D37" si="3">D31*$E$18</f>
-        <v>14905.60750598368</v>
-      </c>
-      <c r="E32" s="111">
-        <f t="shared" ref="E32:E37" si="4">SUM(C32:D32)</f>
-        <v>191905.60750598367</v>
-      </c>
-      <c r="F32" s="112">
-        <f>B32*$H$8</f>
-        <v>156000</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="192"/>
-      <c r="B33" s="110">
+      <c r="A33" s="219"/>
+      <c r="B33" s="112">
         <v>14</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="113">
+        <f t="shared" si="3"/>
+        <v>150700</v>
+      </c>
+      <c r="D33" s="113">
+        <f t="shared" si="4"/>
+        <v>49592.57244310114</v>
+      </c>
+      <c r="E33" s="113">
+        <f t="shared" si="5"/>
+        <v>200292.57244310115</v>
+      </c>
+      <c r="F33" s="114">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D33" s="111">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="219"/>
+      <c r="B34" s="141">
+        <v>15</v>
+      </c>
+      <c r="C34" s="113">
         <f t="shared" si="3"/>
-        <v>15650.887881282864</v>
-      </c>
-      <c r="E33" s="111">
+        <v>150700</v>
+      </c>
+      <c r="D34" s="212">
         <f t="shared" si="4"/>
-        <v>192650.88788128286</v>
-      </c>
-      <c r="F33" s="112">
-        <f>B33*$H$8</f>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="222">
-        <v>15</v>
-      </c>
-      <c r="C34" s="223">
+        <v>52072.201065256202</v>
+      </c>
+      <c r="E34" s="212">
+        <f t="shared" si="5"/>
+        <v>202772.2010652562</v>
+      </c>
+      <c r="F34" s="213">
         <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D34" s="223">
-        <f t="shared" si="3"/>
-        <v>16433.432275347008</v>
-      </c>
-      <c r="E34" s="223">
-        <f t="shared" si="4"/>
-        <v>193433.432275347</v>
-      </c>
-      <c r="F34" s="224">
-        <f>B34*$H$8</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="187" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="219">
-        <v>16</v>
-      </c>
-      <c r="C35" s="220">
-        <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D35" s="220">
-        <f t="shared" si="3"/>
-        <v>17255.103889114358</v>
-      </c>
-      <c r="E35" s="220">
-        <f t="shared" si="4"/>
-        <v>194255.10388911437</v>
-      </c>
-      <c r="F35" s="221">
-        <f>B35*$H$8</f>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="116">
-        <v>17</v>
-      </c>
-      <c r="C36" s="117">
-        <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D36" s="117">
-        <f t="shared" si="3"/>
-        <v>18117.859083570078</v>
-      </c>
-      <c r="E36" s="117">
-        <f t="shared" si="4"/>
-        <v>195117.85908357007</v>
-      </c>
-      <c r="F36" s="118">
-        <f>B36*$H$8</f>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="188"/>
-      <c r="B37" s="116">
-        <v>18</v>
-      </c>
-      <c r="C37" s="117">
-        <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D37" s="117">
-        <f t="shared" si="3"/>
-        <v>19023.752037748582</v>
-      </c>
-      <c r="E37" s="117">
-        <f t="shared" si="4"/>
-        <v>196023.75203774858</v>
-      </c>
-      <c r="F37" s="118">
-        <f>B37*$H$8</f>
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
-      <c r="B38" s="116">
-        <v>19</v>
-      </c>
-      <c r="C38" s="117">
-        <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D38" s="117">
-        <f t="shared" ref="D38:D39" si="5">D37*$E$18</f>
-        <v>19974.93963963601</v>
-      </c>
-      <c r="E38" s="117">
-        <f t="shared" ref="E38:E39" si="6">SUM(C38:D38)</f>
-        <v>196974.93963963602</v>
-      </c>
-      <c r="F38" s="118">
-        <f>B38*$H$8</f>
-        <v>228000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="189"/>
-      <c r="B39" s="116">
-        <v>20</v>
-      </c>
-      <c r="C39" s="117">
-        <f t="shared" si="0"/>
-        <v>177000</v>
-      </c>
-      <c r="D39" s="117">
-        <f t="shared" si="5"/>
-        <v>20973.68662161781</v>
-      </c>
-      <c r="E39" s="117">
-        <f t="shared" si="6"/>
-        <v>197973.68662161782</v>
-      </c>
-      <c r="F39" s="118">
-        <f>B39*$H$8</f>
-        <v>240000</v>
-      </c>
-    </row>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A20:A33"/>
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11491,7 +11280,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11509,7 +11298,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -11519,92 +11308,92 @@
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="150" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="146" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
-      <c r="B3" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="148" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="C3" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="151" t="s">
+      <c r="E3" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="I3" s="147" t="s">
         <v>91</v>
+      </c>
+      <c r="J3" s="147" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
-      <c r="G4" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="153">
+      <c r="G4" s="148" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="149">
         <f>C15*-1</f>
-        <v>46472.387499999997</v>
-      </c>
-      <c r="I4" s="153">
+        <v>65372.387499999997</v>
+      </c>
+      <c r="I4" s="149">
         <f t="shared" ref="I4:J4" si="0">D15*-1</f>
-        <v>256807.53901515147</v>
-      </c>
-      <c r="J4" s="153">
+        <v>-28979.834722222291</v>
+      </c>
+      <c r="J4" s="149">
         <f t="shared" si="0"/>
-        <v>332570.02386363642</v>
+        <v>561454.6097222222</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="55">
         <v>0</v>
       </c>
       <c r="C5" s="56">
         <f>Mensual!D11</f>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
       <c r="D5" s="56">
         <f>Mensual!F11</f>
-        <v>3480000</v>
+        <v>3420000</v>
       </c>
       <c r="E5" s="56">
         <f>Mensual!H11</f>
-        <v>4716000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -11615,21 +11404,21 @@
       </c>
       <c r="C6" s="57">
         <f>Mensual!D11</f>
-        <v>2376000</v>
+        <v>2430000</v>
       </c>
       <c r="D6" s="57">
         <f>Mensual!F11</f>
-        <v>3480000</v>
+        <v>3420000</v>
       </c>
       <c r="E6" s="57">
         <f>Mensual!H11</f>
-        <v>4716000</v>
+        <v>6300000</v>
       </c>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="59"/>
@@ -11649,21 +11438,21 @@
       </c>
       <c r="D8" s="60">
         <f>-Costos!G20</f>
-        <v>-462242.42424242425</v>
+        <v>-444177.77777777781</v>
       </c>
       <c r="E8" s="60">
         <f>-Costos!G32</f>
-        <v>-626418.18181818188</v>
-      </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="154" t="s">
-        <v>104</v>
+        <v>-818222.22222222236</v>
+      </c>
+      <c r="G8" s="145"/>
+      <c r="H8" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="150" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -11678,27 +11467,27 @@
         <v>-1782000</v>
       </c>
       <c r="D9" s="60">
-        <f>C9*1.2</f>
-        <v>-2138400</v>
+        <f>-Costos!C23</f>
+        <v>-2913000</v>
       </c>
       <c r="E9" s="60">
-        <f>D9*1.4</f>
-        <v>-2993760</v>
-      </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="151" t="s">
+        <f>-Costos!C35</f>
+        <v>-3732000</v>
+      </c>
+      <c r="G9" s="145"/>
+      <c r="H9" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="I9" s="147" t="s">
         <v>91</v>
+      </c>
+      <c r="J9" s="147" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="61">
@@ -11713,20 +11502,20 @@
         <f>-Inversion!J19</f>
         <v>-145621.75</v>
       </c>
-      <c r="G10" s="152" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="153">
+      <c r="G10" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="149">
         <f>C5*0.03</f>
-        <v>71280</v>
-      </c>
-      <c r="I10" s="153">
+        <v>72900</v>
+      </c>
+      <c r="I10" s="149">
         <f t="shared" ref="I10:J10" si="1">D5*0.03</f>
-        <v>104400</v>
-      </c>
-      <c r="J10" s="153">
+        <v>102600</v>
+      </c>
+      <c r="J10" s="149">
         <f t="shared" si="1"/>
-        <v>141480</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -11741,11 +11530,11 @@
       </c>
       <c r="D11" s="62">
         <f>SUM(D8:D10)</f>
-        <v>-2746264.1742424243</v>
+        <v>-3502799.527777778</v>
       </c>
       <c r="E11" s="62">
         <f>SUM(E8:E10)</f>
-        <v>-3765799.9318181816</v>
+        <v>-4695843.972222222</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11757,7 +11546,7 @@
     </row>
     <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="64">
         <f>+B6+B11</f>
@@ -11765,15 +11554,15 @@
       </c>
       <c r="C13" s="64">
         <f>+C6+C11</f>
-        <v>132778.25</v>
+        <v>186778.25</v>
       </c>
       <c r="D13" s="64">
         <f>+D6+D11</f>
-        <v>733735.82575757569</v>
+        <v>-82799.527777777985</v>
       </c>
       <c r="E13" s="64">
         <f>+E6+E11</f>
-        <v>950200.06818181835</v>
+        <v>1604156.027777778</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11785,20 +11574,20 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="65">
         <f>-C13*0.35</f>
-        <v>-46472.387499999997</v>
+        <v>-65372.387499999997</v>
       </c>
       <c r="D15" s="65">
         <f>-D13*0.35</f>
-        <v>-256807.53901515147</v>
+        <v>28979.834722222291</v>
       </c>
       <c r="E15" s="65">
         <f>-E13*0.35</f>
-        <v>-332570.02386363642</v>
+        <v>-561454.6097222222</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11810,20 +11599,20 @@
     </row>
     <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="66">
         <f>C15+C13</f>
-        <v>86305.862500000003</v>
+        <v>121405.8625</v>
       </c>
       <c r="D17" s="66">
         <f>D15+D13</f>
-        <v>476928.28674242424</v>
+        <v>-53819.69305555569</v>
       </c>
       <c r="E17" s="66">
         <f>E15+E13</f>
-        <v>617630.04431818193</v>
+        <v>1042701.4180555558</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11835,7 +11624,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="65">
@@ -11853,7 +11642,7 @@
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="68">
         <f>-Inversion!D19</f>
@@ -11861,15 +11650,15 @@
       </c>
       <c r="C20" s="66">
         <f>SUM(C17:C19)</f>
-        <v>231927.61249999999</v>
+        <v>267027.61249999999</v>
       </c>
       <c r="D20" s="66">
         <f>SUM(D17:D19)</f>
-        <v>622550.03674242424</v>
+        <v>91802.05694444431</v>
       </c>
       <c r="E20" s="66">
         <f>SUM(E17:E19)</f>
-        <v>763251.79431818193</v>
+        <v>1188323.1680555558</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11880,10 +11669,10 @@
       <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="160" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="163">
+      <c r="A22" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="159">
         <v>0.1885</v>
       </c>
       <c r="C22" s="65"/>
@@ -11891,21 +11680,21 @@
       <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="166">
+      <c r="A23" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="162">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>512385.2142462784</v>
+        <v>419376.3850428221</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="165">
+      <c r="A24" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="161">
         <f>IRR(B20:E20,30)</f>
-        <v>0.59511242532213249</v>
+        <v>0.49185301556512817</v>
       </c>
       <c r="G24" s="27"/>
     </row>
@@ -11936,50 +11725,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="144" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="193"/>
+      <c r="J4" s="194"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="143" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="144" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="197"/>
+      <c r="F5" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="199" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="200"/>
-      <c r="J4" s="201"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="204"/>
-      <c r="F5" s="143" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="144" t="s">
-        <v>145</v>
+      <c r="G5" s="140" t="s">
+        <v>144</v>
       </c>
       <c r="H5" s="37">
         <v>1</v>
@@ -11993,7 +11782,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -12006,7 +11795,7 @@
         <v>36000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="37">
         <v>10</v>
@@ -12026,7 +11815,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -12039,7 +11828,7 @@
         <v>30000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="37">
         <v>10</v>
@@ -12059,7 +11848,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -12072,7 +11861,7 @@
         <v>16000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="37">
         <v>10</v>
@@ -12092,7 +11881,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -12105,7 +11894,7 @@
         <v>45000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="37">
         <v>10</v>
@@ -12124,25 +11913,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="207"/>
-      <c r="F10" s="145" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
+      <c r="A10" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="200"/>
+      <c r="F10" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -12155,7 +11944,7 @@
         <v>150000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="37">
         <v>3</v>
@@ -12175,7 +11964,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -12188,7 +11977,7 @@
         <v>5000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="37">
         <v>3</v>
@@ -12207,25 +11996,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="207"/>
-      <c r="F13" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="208"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="210"/>
+      <c r="A13" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="198"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="200"/>
+      <c r="F13" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -12238,7 +12027,7 @@
         <v>31760</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="37">
         <v>3</v>
@@ -12258,7 +12047,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -12271,7 +12060,7 @@
         <v>40566</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="37">
         <v>3</v>
@@ -12291,7 +12080,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -12304,7 +12093,7 @@
         <v>14333</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -12323,25 +12112,25 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="207"/>
-      <c r="F17" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="210"/>
+      <c r="A17" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="198"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="200"/>
+      <c r="F17" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -12355,7 +12144,7 @@
         <v>209475</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G18" s="37">
         <v>4</v>
@@ -12374,11 +12163,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="198" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
+      <c r="A19" s="191" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="41">
         <f>SUM(D6:D18)</f>
         <v>578134</v>
@@ -12401,37 +12190,37 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="160" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="173" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="164" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="164" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="176" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="177" t="s">
+      <c r="D24" s="173"/>
+      <c r="E24" s="173" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="173" t="s">
         <v>204</v>
-      </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="177" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="175">
+        <v>105</v>
+      </c>
+      <c r="B25" s="171">
         <f>D6</f>
         <v>36000</v>
       </c>
@@ -12449,9 +12238,9 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="175">
+        <v>106</v>
+      </c>
+      <c r="B26" s="171">
         <f>D7</f>
         <v>30000</v>
       </c>
@@ -12469,9 +12258,9 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="175">
+        <v>112</v>
+      </c>
+      <c r="B27" s="171">
         <f>D8</f>
         <v>16000</v>
       </c>
@@ -12489,9 +12278,9 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="175">
+        <v>108</v>
+      </c>
+      <c r="B28" s="171">
         <f>D9</f>
         <v>45000</v>
       </c>
@@ -12508,16 +12297,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
-        <v>140</v>
+      <c r="A29" s="141" t="s">
+        <v>139</v>
       </c>
       <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="175">
+        <v>109</v>
+      </c>
+      <c r="B30" s="171">
         <f>D11</f>
         <v>150000</v>
       </c>
@@ -12535,9 +12324,9 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="175">
+        <v>107</v>
+      </c>
+      <c r="B31" s="171">
         <f>D12</f>
         <v>5000</v>
       </c>
@@ -12554,10 +12343,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="177" t="s">
+      <c r="E32" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="178">
+      <c r="F32" s="174">
         <f>SUM(F25:F31)</f>
         <v>88900</v>
       </c>
@@ -12598,33 +12387,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="D3" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="145" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="145" t="s">
-        <v>134</v>
+      <c r="E3" s="112"/>
+      <c r="F3" s="141" t="s">
+        <v>133</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
@@ -12636,22 +12425,22 @@
         <v>285</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="34">
         <f>D4*C4</f>
         <v>14250</v>
       </c>
-      <c r="H4" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="145" t="s">
+      <c r="H4" s="141" t="s">
         <v>135</v>
+      </c>
+      <c r="I4" s="141" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="14">
         <v>20</v>
@@ -12663,14 +12452,14 @@
         <v>285</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" ref="F5:F14" si="0">D5*C5</f>
         <v>14250</v>
       </c>
-      <c r="H5" s="145" t="s">
-        <v>133</v>
+      <c r="H5" s="141" t="s">
+        <v>132</v>
       </c>
       <c r="I5" s="34">
         <v>285</v>
@@ -12678,7 +12467,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="14">
         <v>20</v>
@@ -12690,14 +12479,14 @@
         <v>285</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="H6" s="145" t="s">
-        <v>128</v>
+      <c r="H6" s="141" t="s">
+        <v>127</v>
       </c>
       <c r="I6" s="34">
         <v>270</v>
@@ -12705,7 +12494,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="14">
         <v>15</v>
@@ -12717,14 +12506,14 @@
         <v>285</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="H7" s="145" t="s">
-        <v>132</v>
+      <c r="H7" s="141" t="s">
+        <v>131</v>
       </c>
       <c r="I7" s="34">
         <v>300</v>
@@ -12732,7 +12521,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14">
         <v>18</v>
@@ -12744,7 +12533,7 @@
         <v>285</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
@@ -12752,26 +12541,26 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="145" t="s">
+      <c r="A9" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="D9" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="145" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="145" t="s">
-        <v>134</v>
+      <c r="E9" s="112"/>
+      <c r="F9" s="141" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -12783,7 +12572,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
@@ -12792,7 +12581,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="14">
         <v>18</v>
@@ -12804,7 +12593,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
@@ -12813,7 +12602,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="14">
         <v>18</v>
@@ -12825,7 +12614,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
@@ -12834,7 +12623,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
@@ -12846,7 +12635,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
@@ -12855,7 +12644,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="14">
         <v>5</v>
@@ -12867,7 +12656,7 @@
         <v>270</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
@@ -12875,14 +12664,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="211"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="147">
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="143">
         <f>SUM(F4:F14)</f>
         <v>209475</v>
       </c>
@@ -12914,65 +12703,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
+      <c r="A3" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="156"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="156" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="212"/>
-      <c r="O5" s="212"/>
+      <c r="A5" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -13014,7 +12803,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
       <c r="B7" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="105">
         <f>SUM(D7:O8)</f>
@@ -13059,7 +12848,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -13084,7 +12873,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="102">
         <v>0.17</v>
@@ -13144,7 +12933,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="102">
         <v>0.06</v>
@@ -13204,7 +12993,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="106">
         <f>D7-D9-D10</f>
@@ -13256,73 +13045,73 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212"/>
-      <c r="O15" s="212"/>
+      <c r="A15" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="205"/>
+      <c r="N15" s="205"/>
+      <c r="O15" s="205"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="142">
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="138">
         <v>1</v>
       </c>
-      <c r="E16" s="142">
+      <c r="E16" s="138">
         <v>2</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="138">
         <v>3</v>
       </c>
-      <c r="G16" s="142">
+      <c r="G16" s="138">
         <v>4</v>
       </c>
-      <c r="H16" s="142">
+      <c r="H16" s="138">
         <v>5</v>
       </c>
-      <c r="I16" s="142">
+      <c r="I16" s="138">
         <v>6</v>
       </c>
-      <c r="J16" s="142">
+      <c r="J16" s="138">
         <v>7</v>
       </c>
-      <c r="K16" s="142">
+      <c r="K16" s="138">
         <v>8</v>
       </c>
-      <c r="L16" s="142">
+      <c r="L16" s="138">
         <v>9</v>
       </c>
-      <c r="M16" s="142">
+      <c r="M16" s="138">
         <v>10</v>
       </c>
-      <c r="N16" s="142">
+      <c r="N16" s="138">
         <v>11</v>
       </c>
-      <c r="O16" s="142">
+      <c r="O16" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="105">
         <f>SUM(D17:O18)</f>
@@ -13367,7 +13156,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -13392,7 +13181,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="102">
         <v>0.17</v>
@@ -13452,7 +13241,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="102">
         <v>0.06</v>
@@ -13512,7 +13301,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="106">
         <f>D17-D19-D20</f>
@@ -13564,73 +13353,73 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="212"/>
+      <c r="A24" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="142">
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="138">
         <v>1</v>
       </c>
-      <c r="E25" s="142">
+      <c r="E25" s="138">
         <v>2</v>
       </c>
-      <c r="F25" s="142">
+      <c r="F25" s="138">
         <v>3</v>
       </c>
-      <c r="G25" s="142">
+      <c r="G25" s="138">
         <v>4</v>
       </c>
-      <c r="H25" s="142">
+      <c r="H25" s="138">
         <v>5</v>
       </c>
-      <c r="I25" s="142">
+      <c r="I25" s="138">
         <v>6</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J25" s="138">
         <v>7</v>
       </c>
-      <c r="K25" s="142">
+      <c r="K25" s="138">
         <v>8</v>
       </c>
-      <c r="L25" s="142">
+      <c r="L25" s="138">
         <v>9</v>
       </c>
-      <c r="M25" s="142">
+      <c r="M25" s="138">
         <v>10</v>
       </c>
-      <c r="N25" s="142">
+      <c r="N25" s="138">
         <v>11</v>
       </c>
-      <c r="O25" s="142">
+      <c r="O25" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
       <c r="B26" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="105">
         <f>SUM(D26:O27)</f>
@@ -13675,7 +13464,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
@@ -13700,7 +13489,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="102">
         <v>0.17</v>
@@ -13760,7 +13549,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="102">
         <v>0.06</v>
@@ -13820,7 +13609,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="106">
         <f>D26-D28-D29</f>
@@ -13872,46 +13661,46 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="141"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="216" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="217"/>
-      <c r="L33" s="217"/>
-      <c r="M33" s="217"/>
-      <c r="N33" s="217"/>
-      <c r="O33" s="218"/>
+      <c r="A33" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="211"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C34" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="85">
         <v>1</v>
@@ -13953,7 +13742,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
       <c r="B35" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="105">
         <f>SUM(D35:O36)</f>
@@ -13998,7 +13787,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
@@ -14023,7 +13812,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="102">
         <v>0.17</v>
@@ -14083,7 +13872,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="102">
         <v>0.06</v>
@@ -14143,7 +13932,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C39" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="106">
         <f>D35-D37-D38</f>
@@ -14195,65 +13984,65 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="157" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="158"/>
+      <c r="A42" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="154"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="216" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="217"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="217"/>
-      <c r="H44" s="217"/>
-      <c r="I44" s="217"/>
-      <c r="J44" s="217"/>
-      <c r="K44" s="217"/>
-      <c r="L44" s="217"/>
-      <c r="M44" s="217"/>
-      <c r="N44" s="217"/>
-      <c r="O44" s="218"/>
+      <c r="A44" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="210"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="210"/>
+      <c r="J44" s="210"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="211"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C45" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="85">
         <v>1</v>
@@ -14295,7 +14084,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="85"/>
       <c r="B46" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="105">
         <f>SUM(D46:O47)</f>
@@ -14340,7 +14129,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" s="85"/>
       <c r="C47" s="85"/>
@@ -14365,7 +14154,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="102">
         <v>0.17</v>
@@ -14425,7 +14214,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="102">
         <v>0.06</v>
@@ -14485,7 +14274,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C50" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="106">
         <f>D46-D48-D49</f>
@@ -14537,73 +14326,73 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="212"/>
-      <c r="F54" s="212"/>
-      <c r="G54" s="212"/>
-      <c r="H54" s="212"/>
-      <c r="I54" s="212"/>
-      <c r="J54" s="212"/>
-      <c r="K54" s="212"/>
-      <c r="L54" s="212"/>
-      <c r="M54" s="212"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="212"/>
+      <c r="A54" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
+      <c r="I54" s="205"/>
+      <c r="J54" s="205"/>
+      <c r="K54" s="205"/>
+      <c r="L54" s="205"/>
+      <c r="M54" s="205"/>
+      <c r="N54" s="205"/>
+      <c r="O54" s="205"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="141"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="142">
+      <c r="A55" s="137"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="138">
         <v>1</v>
       </c>
-      <c r="E55" s="142">
+      <c r="E55" s="138">
         <v>2</v>
       </c>
-      <c r="F55" s="142">
+      <c r="F55" s="138">
         <v>3</v>
       </c>
-      <c r="G55" s="142">
+      <c r="G55" s="138">
         <v>4</v>
       </c>
-      <c r="H55" s="142">
+      <c r="H55" s="138">
         <v>5</v>
       </c>
-      <c r="I55" s="142">
+      <c r="I55" s="138">
         <v>6</v>
       </c>
-      <c r="J55" s="142">
+      <c r="J55" s="138">
         <v>7</v>
       </c>
-      <c r="K55" s="142">
+      <c r="K55" s="138">
         <v>8</v>
       </c>
-      <c r="L55" s="142">
+      <c r="L55" s="138">
         <v>9</v>
       </c>
-      <c r="M55" s="142">
+      <c r="M55" s="138">
         <v>10</v>
       </c>
-      <c r="N55" s="142">
+      <c r="N55" s="138">
         <v>11</v>
       </c>
-      <c r="O55" s="142">
+      <c r="O55" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="85"/>
       <c r="B56" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="105">
         <f>SUM(D56:O57)</f>
@@ -14648,7 +14437,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" s="85"/>
       <c r="C57" s="85"/>
@@ -14673,7 +14462,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="102">
         <v>0.17</v>
@@ -14733,7 +14522,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="102">
         <v>0.06</v>
@@ -14793,7 +14582,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C60" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" s="106">
         <f>D56-D58-D59</f>
@@ -14844,70 +14633,70 @@
         <v>34650</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="156" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="212"/>
-      <c r="F64" s="212"/>
-      <c r="G64" s="212"/>
-      <c r="H64" s="212"/>
-      <c r="I64" s="212"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="212"/>
-      <c r="M64" s="212"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-    </row>
-    <row r="65" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="142">
+    <row r="64" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="205"/>
+      <c r="F64" s="205"/>
+      <c r="G64" s="205"/>
+      <c r="H64" s="205"/>
+      <c r="I64" s="205"/>
+      <c r="J64" s="205"/>
+      <c r="K64" s="205"/>
+      <c r="L64" s="205"/>
+      <c r="M64" s="205"/>
+      <c r="N64" s="205"/>
+      <c r="O64" s="205"/>
+    </row>
+    <row r="65" spans="1:15" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="138">
         <v>1</v>
       </c>
-      <c r="E65" s="142">
+      <c r="E65" s="138">
         <v>2</v>
       </c>
-      <c r="F65" s="142">
+      <c r="F65" s="138">
         <v>3</v>
       </c>
-      <c r="G65" s="142">
+      <c r="G65" s="138">
         <v>4</v>
       </c>
-      <c r="H65" s="142">
+      <c r="H65" s="138">
         <v>5</v>
       </c>
-      <c r="I65" s="142">
+      <c r="I65" s="138">
         <v>6</v>
       </c>
-      <c r="J65" s="142">
+      <c r="J65" s="138">
         <v>7</v>
       </c>
-      <c r="K65" s="142">
+      <c r="K65" s="138">
         <v>8</v>
       </c>
-      <c r="L65" s="142">
+      <c r="L65" s="138">
         <v>9</v>
       </c>
-      <c r="M65" s="142">
+      <c r="M65" s="138">
         <v>10</v>
       </c>
-      <c r="N65" s="142">
+      <c r="N65" s="138">
         <v>11</v>
       </c>
-      <c r="O65" s="142">
+      <c r="O65" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="85"/>
       <c r="B66" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="105">
         <f>SUM(D66:O67)</f>
@@ -14952,7 +14741,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="85"/>
       <c r="C67" s="85"/>
@@ -14977,7 +14766,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="102">
         <v>0.17</v>
@@ -15037,7 +14826,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" s="102">
         <v>0.06</v>
@@ -15097,7 +14886,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C70" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="106">
         <f>D66-D68-D69</f>
@@ -15149,92 +14938,92 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="157" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="158"/>
-      <c r="C73" s="158"/>
-      <c r="D73" s="158"/>
-      <c r="E73" s="158"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="158"/>
+      <c r="A73" s="153" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="154"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="154"/>
+      <c r="O73" s="154"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="141"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="212"/>
-      <c r="F76" s="212"/>
-      <c r="G76" s="212"/>
-      <c r="H76" s="212"/>
-      <c r="I76" s="212"/>
-      <c r="J76" s="212"/>
-      <c r="K76" s="212"/>
-      <c r="L76" s="212"/>
-      <c r="M76" s="212"/>
-      <c r="N76" s="212"/>
-      <c r="O76" s="212"/>
+      <c r="A76" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="137"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="205"/>
+      <c r="F76" s="205"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="205"/>
+      <c r="I76" s="205"/>
+      <c r="J76" s="205"/>
+      <c r="K76" s="205"/>
+      <c r="L76" s="205"/>
+      <c r="M76" s="205"/>
+      <c r="N76" s="205"/>
+      <c r="O76" s="205"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="141"/>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="142">
+      <c r="A77" s="137"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="138">
         <v>1</v>
       </c>
-      <c r="E77" s="142">
+      <c r="E77" s="138">
         <v>2</v>
       </c>
-      <c r="F77" s="142">
+      <c r="F77" s="138">
         <v>3</v>
       </c>
-      <c r="G77" s="142">
+      <c r="G77" s="138">
         <v>4</v>
       </c>
-      <c r="H77" s="142">
+      <c r="H77" s="138">
         <v>5</v>
       </c>
-      <c r="I77" s="142">
+      <c r="I77" s="138">
         <v>6</v>
       </c>
-      <c r="J77" s="142">
+      <c r="J77" s="138">
         <v>7</v>
       </c>
-      <c r="K77" s="142">
+      <c r="K77" s="138">
         <v>8</v>
       </c>
-      <c r="L77" s="142">
+      <c r="L77" s="138">
         <v>9</v>
       </c>
-      <c r="M77" s="142">
+      <c r="M77" s="138">
         <v>10</v>
       </c>
-      <c r="N77" s="142">
+      <c r="N77" s="138">
         <v>11</v>
       </c>
-      <c r="O77" s="142">
+      <c r="O77" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="85"/>
       <c r="B78" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="105">
         <f>SUM(D78:O79)</f>
@@ -15279,7 +15068,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" s="85"/>
       <c r="C79" s="85"/>
@@ -15304,7 +15093,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="102">
         <v>0.17</v>
@@ -15364,7 +15153,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" s="102">
         <v>0.06</v>
@@ -15424,7 +15213,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C82" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D82" s="106">
         <f>D78-D80-D81</f>
@@ -15476,73 +15265,73 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" s="212"/>
-      <c r="F86" s="212"/>
-      <c r="G86" s="212"/>
-      <c r="H86" s="212"/>
-      <c r="I86" s="212"/>
-      <c r="J86" s="212"/>
-      <c r="K86" s="212"/>
-      <c r="L86" s="212"/>
-      <c r="M86" s="212"/>
-      <c r="N86" s="212"/>
-      <c r="O86" s="212"/>
+      <c r="A86" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="205"/>
+      <c r="F86" s="205"/>
+      <c r="G86" s="205"/>
+      <c r="H86" s="205"/>
+      <c r="I86" s="205"/>
+      <c r="J86" s="205"/>
+      <c r="K86" s="205"/>
+      <c r="L86" s="205"/>
+      <c r="M86" s="205"/>
+      <c r="N86" s="205"/>
+      <c r="O86" s="205"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="141"/>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D87" s="142">
+      <c r="A87" s="137"/>
+      <c r="B87" s="137"/>
+      <c r="C87" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="138">
         <v>1</v>
       </c>
-      <c r="E87" s="142">
+      <c r="E87" s="138">
         <v>2</v>
       </c>
-      <c r="F87" s="142">
+      <c r="F87" s="138">
         <v>3</v>
       </c>
-      <c r="G87" s="142">
+      <c r="G87" s="138">
         <v>4</v>
       </c>
-      <c r="H87" s="142">
+      <c r="H87" s="138">
         <v>5</v>
       </c>
-      <c r="I87" s="142">
+      <c r="I87" s="138">
         <v>6</v>
       </c>
-      <c r="J87" s="142">
+      <c r="J87" s="138">
         <v>7</v>
       </c>
-      <c r="K87" s="142">
+      <c r="K87" s="138">
         <v>8</v>
       </c>
-      <c r="L87" s="142">
+      <c r="L87" s="138">
         <v>9</v>
       </c>
-      <c r="M87" s="142">
+      <c r="M87" s="138">
         <v>10</v>
       </c>
-      <c r="N87" s="142">
+      <c r="N87" s="138">
         <v>11</v>
       </c>
-      <c r="O87" s="142">
+      <c r="O87" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="85"/>
       <c r="B88" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="105">
         <f>SUM(D88:O89)</f>
@@ -15587,7 +15376,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B89" s="85"/>
       <c r="C89" s="85"/>
@@ -15612,7 +15401,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" s="102">
         <v>0.17</v>
@@ -15672,7 +15461,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B91" s="102">
         <v>0.06</v>
@@ -15732,7 +15521,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C92" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D92" s="106">
         <f>D88-D90-D91</f>
@@ -15784,20 +15573,20 @@
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C98" s="142"/>
-      <c r="D98" s="155" t="s">
+      <c r="C98" s="138"/>
+      <c r="D98" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="155" t="s">
+      <c r="F98" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="155" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C99" s="213" t="s">
-        <v>154</v>
+      <c r="C99" s="206" t="s">
+        <v>153</v>
       </c>
       <c r="D99" s="90">
         <f>+C26+C17+C7</f>
@@ -15813,13 +15602,13 @@
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C100" s="214"/>
+      <c r="C100" s="207"/>
       <c r="D100" s="85"/>
       <c r="E100" s="85"/>
       <c r="F100" s="85"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C101" s="214"/>
+      <c r="C101" s="207"/>
       <c r="D101" s="85" t="s">
         <v>4</v>
       </c>
@@ -15831,7 +15620,7 @@
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="215"/>
+      <c r="C102" s="208"/>
       <c r="D102" s="90">
         <f>D99/12</f>
         <v>130000</v>
@@ -15867,7 +15656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -15884,280 +15673,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="B2" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="C2" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="D2" s="166" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="170" t="s">
+      <c r="E2" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="170" t="s">
+      <c r="F2" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="170" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="165" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="165" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="165">
+        <v>6</v>
+      </c>
+      <c r="I3" s="168" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="168" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="170">
+        <v>4</v>
+      </c>
+      <c r="L3" s="167">
+        <v>2</v>
+      </c>
+      <c r="M3" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="165" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="169" t="s">
+      <c r="B4" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C4" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D4" s="165" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="169">
+      <c r="E4" s="165" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="165">
+        <v>7</v>
+      </c>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="169">
+        <v>7</v>
+      </c>
+      <c r="L4" s="170">
+        <v>5</v>
+      </c>
+      <c r="M4" s="167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="165">
+        <v>4</v>
+      </c>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="169">
+        <v>9</v>
+      </c>
+      <c r="L5" s="169">
+        <v>8</v>
+      </c>
+      <c r="M5" s="170">
         <v>6</v>
       </c>
-      <c r="I3" s="172" t="s">
-        <v>202</v>
-      </c>
-      <c r="J3" s="172" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="174">
-        <v>4</v>
-      </c>
-      <c r="L3" s="171">
-        <v>2</v>
-      </c>
-      <c r="M3" s="171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="169" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="169" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="169" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="165">
+        <v>7</v>
+      </c>
+      <c r="K6" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="168" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="169">
-        <v>7</v>
-      </c>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="173">
-        <v>7</v>
-      </c>
-      <c r="L4" s="174">
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="165" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="165">
         <v>5</v>
       </c>
-      <c r="M4" s="171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="169" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="169">
-        <v>4</v>
-      </c>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="173">
-        <v>9</v>
-      </c>
-      <c r="L5" s="173">
-        <v>8</v>
-      </c>
-      <c r="M5" s="174">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="169" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="169" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="169">
-        <v>7</v>
-      </c>
-      <c r="K6" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="M6" s="172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="169" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="169">
-        <v>5</v>
-      </c>
-      <c r="K7" s="172" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
+      <c r="K7" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="166" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="170" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="179">
+      <c r="A11" s="173" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="175">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="179">
+      <c r="A12" s="173" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="175">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="179">
+      <c r="A13" s="173" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="175">
         <f>165133.51</f>
         <v>165133.51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="179">
+      <c r="A14" s="173" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="175">
         <v>91350.14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="179">
+      <c r="A15" s="173" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="175">
         <f>64260.13</f>
         <v>64260.13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="179">
+      <c r="A16" s="173" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="175">
         <f>85260.13</f>
         <v>85260.13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="173" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="175">
+        <v>88305.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="173" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="175">
+        <v>62773.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="179">
-        <v>88305.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="177" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="179">
-        <v>62773.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="177" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="179">
+      <c r="B19" s="175">
         <v>60811.81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="177">
+      <c r="B20" s="173">
         <f>SUM(B11:B19)</f>
         <v>948161.35000000009</v>
       </c>
@@ -16167,7 +15956,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
+      <c r="B22" s="173"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
